--- a/static/download/2014/RP1_APT_ATFM_ARR_2014.xlsx
+++ b/static/download/2014/RP1_APT_ATFM_ARR_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="APT_ATFM_ARR_DLY" sheetId="1" r:id="rId3"/>
@@ -28,7 +28,7 @@
     <t>Meta data</t>
   </si>
   <si>
-    <t>Airport ATFM delay</t>
+    <t>Metadata - Single European Sky Portal</t>
   </si>
   <si>
     <t>Release date</t>
@@ -40,7 +40,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -862,7 +862,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -882,8 +882,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -910,12 +910,6 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -955,7 +949,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -1017,7 +1012,21 @@
       <bottom/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1142,6 +1151,34 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1206,332 +1243,349 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,36 +1595,39 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="13.43"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="11.86"/>
-    <col customWidth="1" min="6" max="7" width="11.57"/>
-    <col customWidth="1" min="8" max="11" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="4" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="10.38"/>
+    <col customWidth="1" min="6" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="11" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -4404,27 +4461,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
-    <col customWidth="1" min="8" max="8" width="12.0"/>
-    <col customWidth="1" min="9" max="9" width="8.0"/>
-    <col customWidth="1" min="10" max="10" width="16.29"/>
-    <col customWidth="1" min="11" max="11" width="10.43"/>
-    <col customWidth="1" min="12" max="12" width="10.86"/>
-    <col customWidth="1" min="13" max="13" width="11.43"/>
-    <col customWidth="1" min="14" max="14" width="10.43"/>
-    <col customWidth="1" min="15" max="16" width="8.0"/>
-    <col customWidth="1" min="17" max="17" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="7.0"/>
+    <col customWidth="1" min="10" max="10" width="14.25"/>
+    <col customWidth="1" min="11" max="11" width="9.13"/>
+    <col customWidth="1" min="12" max="12" width="9.5"/>
+    <col customWidth="1" min="13" max="13" width="10.0"/>
+    <col customWidth="1" min="14" max="14" width="9.13"/>
+    <col customWidth="1" min="15" max="16" width="7.0"/>
+    <col customWidth="1" min="17" max="17" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -4474,7 +4534,7 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="10"/>
@@ -4491,7 +4551,7 @@
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4512,7 +4572,7 @@
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
@@ -4560,453 +4620,453 @@
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>5827959.0</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>7294607.0</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>2238712.0</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>550474.0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>3772649.0</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>732772.0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>1.25165722682675</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>0.38413310731938916</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="38">
         <v>0.09445399324188794</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <v>0.6473362286865779</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="39">
         <v>0.1257338975788951</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="40">
         <v>0.30689960404995087</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="41">
         <v>0.07546314695226213</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="41">
         <v>0.5171833109035209</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="42">
         <v>0.10045393809426607</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>5357404.0</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>4087128.0</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>1050180.0</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>83781.0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>2700582.0</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>252585.0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>0.7628933714911177</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="38">
         <v>0.19602404448124502</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <v>0.01563835768219085</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="38">
         <v>0.5040840675819857</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="39">
         <v>0.04714690174569624</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <v>0.256948155281655</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="41">
         <v>0.020498746307920868</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="41">
         <v>0.6607529786197056</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="42">
         <v>0.06180011979071857</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>5308789.0</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>6022727.0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>1933899.0</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>178553.0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>3685636.0</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>224639.0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <v>1.1344822708154345</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="38">
         <v>0.3642825133942976</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="38">
         <v>0.033633470834874016</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="38">
         <v>0.6942517398977431</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="39">
         <v>0.042314546688519736</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="40">
         <v>0.3211002258611423</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="41">
         <v>0.029646537191541308</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="41">
         <v>0.611954684314929</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="42">
         <v>0.03729855263238729</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>5486745.0</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>4986496.0</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>1387076.0</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>113794.0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>3097169.0</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>388457.0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>0.908825906799022</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>0.25280489616339014</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <v>0.02073980110247515</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <v>0.5644820380753981</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="39">
         <v>0.07079917145775866</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <v>0.27816647200759814</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="41">
         <v>0.022820433426598556</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="41">
         <v>0.6211112973919963</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="42">
         <v>0.07790179717380702</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>5312530.0</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>3576702.0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>934103.0</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>150494.0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>2252379.0</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>239726.0</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="37">
         <v>0.6732577510150531</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>0.1758301600179199</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>0.02832812238236772</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <v>0.4239748293186109</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="39">
         <v>0.04512463929615456</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <v>0.26116321684054195</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <v>0.04207619197797301</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="41">
         <v>0.6297362766034185</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="42">
         <v>0.06702431457806661</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>5196800.0</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>3049225.0</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>662699.0</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>137565.0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>2049036.0</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>199925.0</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>0.5867505003078818</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="38">
         <v>0.12752058959359605</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <v>0.02647109759852217</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <v>0.39428802339901475</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="39">
         <v>0.03847078971674877</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="40">
         <v>0.2173335847633415</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="41">
         <v>0.04511474227057695</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="41">
         <v>0.6719858324656265</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="42">
         <v>0.06556584050045504</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>5289224.0</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>2944970.0</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <v>693638.0</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <v>92170.0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="47">
         <v>2029604.0</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <v>129558.0</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="49">
         <v>0.5567867800645236</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="50">
         <v>0.1311417327002978</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="50">
         <v>0.017425996705754947</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="50">
         <v>0.38372434217193296</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="51">
         <v>0.02449470848653791</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="52">
         <v>0.23553312936973891</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>0.031297432571469316</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="53">
         <v>0.6891764602016319</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="54">
         <v>0.04399297785715983</v>
       </c>
     </row>
@@ -5018,29 +5078,31 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="5" width="10.43"/>
-    <col customWidth="1" min="6" max="17" width="8.71"/>
-    <col customWidth="1" min="18" max="18" width="10.43"/>
-    <col customWidth="1" min="19" max="19" width="11.0"/>
-    <col customWidth="1" min="20" max="20" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="17" width="7.63"/>
+    <col customWidth="1" min="18" max="18" width="9.13"/>
+    <col customWidth="1" min="19" max="19" width="9.63"/>
+    <col customWidth="1" min="20" max="20" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -5093,7 +5155,7 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="10"/>
@@ -5112,5326 +5174,5326 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="61" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="64" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="65"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="64"/>
     </row>
     <row r="5" ht="51.0" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="71" t="s">
+      <c r="Q5" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="72" t="s">
+      <c r="S5" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="68" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="73">
         <v>39448.0</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>455736.0</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>831205.0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>138483.0</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>75792.0</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>438485.0</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>178445.0</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="37">
         <v>1.8238739094563519</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <v>0.3038667123071252</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="38">
         <v>0.1663068092053294</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="38">
         <v>0.9621469447223832</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="39">
         <v>0.3915534432215142</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="40">
         <v>0.1666051094495341</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="41">
         <v>0.09118328210248976</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="41">
         <v>0.5275293098573758</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="42">
         <v>0.2146822985906004</v>
       </c>
-      <c r="T6" s="76">
+      <c r="T6" s="75">
         <v>1.8238739094563519</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <v>39479.0</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>443038.0</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>876517.0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>191107.0</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>73967.0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>515956.0</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>95487.0</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>1.9784239726614872</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <v>0.43135577535109854</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="38">
         <v>0.16695407617405278</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="38">
         <v>1.1645863334522095</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="39">
         <v>0.21552778768412642</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="40">
         <v>0.21802999827727243</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="41">
         <v>0.0843874106263769</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="41">
         <v>0.5886434604234715</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="42">
         <v>0.10893913067287914</v>
       </c>
-      <c r="T7" s="76">
+      <c r="T7" s="75">
         <v>1.9000571890152587</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="73">
         <v>39508.0</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>474991.0</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>812189.0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>147999.0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>48191.0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>535509.0</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>80490.0</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <v>1.7099039771279876</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="38">
         <v>0.31158274577834105</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="38">
         <v>0.10145665917880549</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="38">
         <v>1.1274087298496183</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="39">
         <v>0.16945584232122293</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="40">
         <v>0.18222236449890358</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="41">
         <v>0.05933471150187949</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="41">
         <v>0.6593403752082335</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="42">
         <v>0.09910254879098337</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="75">
         <v>1.8343100894257751</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="73">
         <v>39539.0</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>494982.0</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>567584.0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>199267.0</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>38048.0</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>279260.0</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>51009.0</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="37">
         <v>1.146676040744916</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="38">
         <v>0.4025742350226877</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="38">
         <v>0.07686744164434263</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="38">
         <v>0.5641821318755026</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="39">
         <v>0.10305223220238312</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="40">
         <v>0.351079311608502</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="41">
         <v>0.06703501155776061</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="41">
         <v>0.4920152787957377</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="42">
         <v>0.08987039803799966</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="75">
         <v>1.6521738897774818</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="73">
         <v>39569.0</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>517877.0</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>569090.0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>238078.0</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>52021.0</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>216044.0</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>62947.0</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>1.0988902770348943</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <v>0.4597191997327551</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="38">
         <v>0.10045049307074846</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="38">
         <v>0.41717241738868494</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="39">
         <v>0.12154816684270589</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="40">
         <v>0.4183485916111687</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="41">
         <v>0.09141084889911964</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="41">
         <v>0.37963063838760125</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="42">
         <v>0.11060992110211039</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="75">
         <v>1.5321160769354536</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="73">
         <v>39600.0</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>526835.0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>694097.0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>265499.0</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>98539.0</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>245620.0</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>84439.0</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="37">
         <v>1.3174846014406787</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <v>0.5039509523854717</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="38">
         <v>0.1870395854489546</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="38">
         <v>0.46621807586815606</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="39">
         <v>0.16027598773809637</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="40">
         <v>0.3825099373718659</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="41">
         <v>0.14196718902401248</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="41">
         <v>0.3538698481624326</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="42">
         <v>0.12165302544168899</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="75">
         <v>1.493304693836433</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="73">
         <v>39630.0</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <v>532375.0</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>589851.0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>255838.0</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>112751.0</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>179747.0</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>41515.0</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>1.1079614933082884</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <v>0.4805597558112233</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="38">
         <v>0.21178868278938717</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="38">
         <v>0.33763230805353367</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="39">
         <v>0.07798074665414416</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="40">
         <v>0.43373326484145996</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="41">
         <v>0.19115166372524586</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="41">
         <v>0.3047328901705685</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="42">
         <v>0.07038218126272568</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="75">
         <v>1.4337698798026834</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="73">
         <v>39661.0</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <v>524550.0</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>459501.0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>215696.0</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>19734.0</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>147487.0</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>76584.0</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>0.8759908492993995</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <v>0.4112019826517968</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="38">
         <v>0.03762081784386617</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="38">
         <v>0.2811686207225241</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="39">
         <v>0.14599942808121247</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="40">
         <v>0.4694135594917095</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="41">
         <v>0.042946587711452204</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="41">
         <v>0.3209720979932579</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="42">
         <v>0.1666677548035804</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="75">
         <v>1.3600785213722402</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="73">
         <v>39692.0</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>519344.0</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>499614.0</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>241048.0</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>13578.0</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>211675.0</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>33313.0</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <v>0.9620097661665485</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <v>0.4641393758279676</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <v>0.026144520780061</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="38">
         <v>0.40758148741489264</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="39">
         <v>0.06414438214362735</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="40">
         <v>0.482468465655486</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <v>0.027176980629045625</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <v>0.42367707870476007</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <v>0.06667747501070827</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="75">
         <v>1.314032386817197</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="73">
         <v>39722.0</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <v>506019.0</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>566149.0</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>182937.0</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>8542.0</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>366199.0</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>8471.0</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <v>1.1188295301164581</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="38">
         <v>0.36152199818583886</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="38">
         <v>0.016880789061280307</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="38">
         <v>0.7236862647449996</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="39">
         <v>0.016740478124339205</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="40">
         <v>0.32312518435959436</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="41">
         <v>0.01508790088828206</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="41">
         <v>0.6468244225460082</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="42">
         <v>0.014962492206115351</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="75">
         <v>1.2942602978093165</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="72">
         <v>2008.0</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="73">
         <v>39753.0</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>426862.0</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <v>458393.0</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>94204.0</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <v>7067.0</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>349776.0</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>7346.0</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="37">
         <v>1.0738669640305298</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="38">
         <v>0.22068959054682777</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="38">
         <v>0.016555701842750115</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="38">
         <v>0.8194123627776658</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="39">
         <v>0.017209308863286026</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="40">
         <v>0.20550924643264623</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="41">
         <v>0.01541690209056421</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="41">
         <v>0.7630483013484063</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="42">
         <v>0.016025550128383286</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="75">
         <v>1.276911169512683</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B17" s="12">
         <v>2008.0</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="77">
         <v>39783.0</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <v>405350.0</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="80">
         <v>370417.0</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="81">
         <v>68556.0</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="81">
         <v>2244.0</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="81">
         <v>286891.0</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="82">
         <v>12726.0</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="83">
         <v>0.913820155421241</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="84">
         <v>0.16912791414826692</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="84">
         <v>0.0055359565807327005</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="84">
         <v>0.7077611940298507</v>
       </c>
-      <c r="O17" s="86">
+      <c r="O17" s="85">
         <v>0.031395090662390525</v>
       </c>
-      <c r="P17" s="87">
+      <c r="P17" s="86">
         <v>0.18507789869255462</v>
       </c>
-      <c r="Q17" s="88">
+      <c r="Q17" s="87">
         <v>0.006058037293104798</v>
       </c>
-      <c r="R17" s="88">
+      <c r="R17" s="87">
         <v>0.7745081894189522</v>
       </c>
-      <c r="S17" s="89">
+      <c r="S17" s="88">
         <v>0.03435587459538844</v>
       </c>
-      <c r="T17" s="90">
+      <c r="T17" s="89">
         <v>1.25165722682675</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="90">
         <v>2009.0</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="91">
         <v>39814.0</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="93">
         <v>404689.0</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="94">
         <v>440868.0</v>
       </c>
-      <c r="G18" s="96">
+      <c r="G18" s="95">
         <v>49394.0</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="95">
         <v>3790.0</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="95">
         <v>374283.0</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="96">
         <v>13401.0</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="97">
         <v>1.089399514194851</v>
       </c>
-      <c r="L18" s="99">
+      <c r="L18" s="98">
         <v>0.1220542194129319</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="98">
         <v>0.0093652162524803</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="98">
         <v>0.9248657611153256</v>
       </c>
-      <c r="O18" s="100">
+      <c r="O18" s="99">
         <v>0.03311431741411306</v>
       </c>
-      <c r="P18" s="101">
+      <c r="P18" s="100">
         <v>0.11203807035212354</v>
       </c>
-      <c r="Q18" s="102">
+      <c r="Q18" s="101">
         <v>0.00859667746354918</v>
       </c>
-      <c r="R18" s="102">
+      <c r="R18" s="101">
         <v>0.8489683987043741</v>
       </c>
-      <c r="S18" s="103">
+      <c r="S18" s="102">
         <v>0.030396853479953183</v>
       </c>
-      <c r="T18" s="104">
+      <c r="T18" s="103">
         <v>1.089399514194851</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="73">
         <v>39845.0</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>385722.0</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <v>380929.0</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>59550.0</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2901.0</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>307553.0</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>10925.0</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>0.9875739522246592</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="38">
         <v>0.15438580117286543</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="38">
         <v>0.007520960691897273</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="38">
         <v>0.7973436827559746</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="39">
         <v>0.028323507603921997</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="40">
         <v>0.15632834465215303</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="41">
         <v>0.007615592406983979</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="41">
         <v>0.8073761777129072</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="42">
         <v>0.028679885227955865</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="75">
         <v>1.0397084554744305</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="73">
         <v>39873.0</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>443939.0</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>215264.0</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>57293.0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>6804.0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>136056.0</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>15111.0</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <v>0.48489544734749596</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="38">
         <v>0.12905601895755947</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="38">
         <v>0.015326429982497596</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="38">
         <v>0.30647453816853215</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="39">
         <v>0.0340384602389067</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="40">
         <v>0.26615225955106286</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="41">
         <v>0.031607700312174816</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="41">
         <v>0.6320425152371042</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="42">
         <v>0.0701975248996581</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="75">
         <v>0.8401676995989792</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="73">
         <v>39904.0</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>446510.0</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>234869.0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>67118.0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>10216.0</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>137140.0</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <v>20395.0</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="37">
         <v>0.5260106156637029</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="38">
         <v>0.15031690219703925</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="38">
         <v>0.02287966674878502</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="38">
         <v>0.3071375781057535</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="39">
         <v>0.04567646861212515</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="40">
         <v>0.2857678109925107</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="41">
         <v>0.04349658745939226</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="41">
         <v>0.5838999612549974</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="42">
         <v>0.08683564029309956</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="75">
         <v>0.7567138250657401</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="73">
         <v>39934.0</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>471717.0</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>285683.0</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>81633.0</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>20380.0</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>139291.0</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>44379.0</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="37">
         <v>0.6056237108266185</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="38">
         <v>0.1730550308765637</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="38">
         <v>0.043203870117040515</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="38">
         <v>0.29528509678472475</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="39">
         <v>0.09407971304828955</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="40">
         <v>0.28574678927342545</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <v>0.0713378114903582</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <v>0.48757188912185884</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <v>0.1553435101143575</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="75">
         <v>0.7236038478530618</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="73">
         <v>39965.0</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>477673.0</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <v>323623.0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>110837.0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>2511.0</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>175045.0</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>35230.0</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="37">
         <v>0.6774990422318197</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="38">
         <v>0.23203530448654205</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="38">
         <v>0.005256734209385919</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="38">
         <v>0.3664536199450252</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="39">
         <v>0.07375338359086656</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="40">
         <v>0.342488018465931</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="41">
         <v>0.007759028252009283</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="41">
         <v>0.5408917165961629</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="42">
         <v>0.10886123668589687</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="75">
         <v>0.715230871590153</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="73">
+      <c r="B24" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="73">
         <v>39995.0</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>490740.0</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>380729.0</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>141743.0</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>4890.0</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>198155.0</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>35941.0</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="37">
         <v>0.7758263031340424</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="38">
         <v>0.2888352284305335</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="38">
         <v>0.009964543342706932</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="38">
         <v>0.4037881566613685</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="39">
         <v>0.0732383746994335</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="40">
         <v>0.3722936787058511</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="41">
         <v>0.012843781272243511</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="41">
         <v>0.5204620609409842</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="42">
         <v>0.09440047908092107</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="75">
         <v>0.7247588105056408</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="73">
         <v>40026.0</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>481186.0</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>205285.0</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>128703.0</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>4937.0</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>52602.0</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <v>19043.0</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="37">
         <v>0.42662296908056346</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="38">
         <v>0.26747037528107637</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="38">
         <v>0.010260065754199</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="38">
         <v>0.10931739493667729</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <v>0.039575133108610806</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="40">
         <v>0.6269479016976399</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="41">
         <v>0.024049492169423</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="41">
         <v>0.25623888740044326</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="42">
         <v>0.09276371873249385</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="75">
         <v>0.6849332181436998</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="73">
         <v>40057.0</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>477821.0</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <v>324917.0</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <v>119412.0</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <v>6188.0</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <v>195576.0</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>3741.0</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="37">
         <v>0.6799973211725729</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="38">
         <v>0.24990948493264215</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="38">
         <v>0.012950456342437858</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="38">
         <v>0.40930808817527903</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <v>0.007829291722213968</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="40">
         <v>0.36751539623965507</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <v>0.01904486376520773</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <v>0.6019260303400561</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <v>0.011513709655081144</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="75">
         <v>0.6843551600650687</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="73">
         <v>40087.0</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>467956.0</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <v>321986.0</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <v>86880.0</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <v>3186.0</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>222786.0</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="36">
         <v>9134.0</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="37">
         <v>0.6880689637487285</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="38">
         <v>0.1856584807118618</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="38">
         <v>0.006808332407320346</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="38">
         <v>0.4760832214994572</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="39">
         <v>0.019518929130089152</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="40">
         <v>0.2698253961352357</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="41">
         <v>0.00989484014832943</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="41">
         <v>0.6919120707111489</v>
       </c>
-      <c r="S27" s="43">
+      <c r="S27" s="42">
         <v>0.028367693005285945</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="75">
         <v>0.6847372873026613</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="72">
         <v>2009.0</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="73">
         <v>40118.0</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <v>415329.0</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="34">
         <v>443912.0</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <v>66240.0</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>11995.0</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>349168.0</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>16509.0</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="37">
         <v>1.0688201401780275</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="38">
         <v>0.15948802034050114</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="38">
         <v>0.028880718659183444</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="38">
         <v>0.840702190311777</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="39">
         <v>0.03974921086656602</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="40">
         <v>0.14921876407936707</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="41">
         <v>0.02702112130332138</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="41">
         <v>0.7865703112328569</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="42">
         <v>0.03718980338445458</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="75">
         <v>0.7168774613249862</v>
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B29" s="12">
         <v>2009.0</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="77">
         <v>40148.0</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="79">
         <v>394122.0</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="80">
         <v>529063.0</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="81">
         <v>81377.0</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="81">
         <v>5983.0</v>
       </c>
-      <c r="I29" s="82">
+      <c r="I29" s="81">
         <v>412927.0</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="82">
         <v>28776.0</v>
       </c>
-      <c r="K29" s="84">
+      <c r="K29" s="83">
         <v>1.342383830387545</v>
       </c>
-      <c r="L29" s="85">
+      <c r="L29" s="84">
         <v>0.20647667473523426</v>
       </c>
-      <c r="M29" s="85">
+      <c r="M29" s="84">
         <v>0.015180578602564688</v>
       </c>
-      <c r="N29" s="85">
+      <c r="N29" s="84">
         <v>1.047713652117872</v>
       </c>
-      <c r="O29" s="86">
+      <c r="O29" s="85">
         <v>0.07301292493187389</v>
       </c>
-      <c r="P29" s="87">
+      <c r="P29" s="86">
         <v>0.1538134399872983</v>
       </c>
-      <c r="Q29" s="88">
+      <c r="Q29" s="87">
         <v>0.011308672124113763</v>
       </c>
-      <c r="R29" s="88">
+      <c r="R29" s="87">
         <v>0.7804873899705707</v>
       </c>
-      <c r="S29" s="89">
+      <c r="S29" s="88">
         <v>0.054390497918017325</v>
       </c>
-      <c r="T29" s="90">
+      <c r="T29" s="89">
         <v>0.7628933714911177</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="91">
+      <c r="B30" s="90">
         <v>2010.0</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="91">
         <v>40179.0</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="93">
         <v>389817.0</v>
       </c>
-      <c r="F30" s="95">
+      <c r="F30" s="94">
         <v>611298.0</v>
       </c>
-      <c r="G30" s="96">
+      <c r="G30" s="95">
         <v>90935.0</v>
       </c>
-      <c r="H30" s="96">
+      <c r="H30" s="95">
         <v>12840.0</v>
       </c>
-      <c r="I30" s="96">
+      <c r="I30" s="95">
         <v>502085.0</v>
       </c>
-      <c r="J30" s="97">
+      <c r="J30" s="96">
         <v>5438.0</v>
       </c>
-      <c r="K30" s="98">
+      <c r="K30" s="97">
         <v>1.5681666012513564</v>
       </c>
-      <c r="L30" s="99">
+      <c r="L30" s="98">
         <v>0.23327612700318354</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="98">
         <v>0.03293853269611125</v>
       </c>
-      <c r="N30" s="99">
+      <c r="N30" s="98">
         <v>1.2880018059756244</v>
       </c>
-      <c r="O30" s="100">
+      <c r="O30" s="99">
         <v>0.013950135576437149</v>
       </c>
-      <c r="P30" s="101">
+      <c r="P30" s="100">
         <v>0.14875723460570786</v>
       </c>
-      <c r="Q30" s="102">
+      <c r="Q30" s="101">
         <v>0.021004485537332036</v>
       </c>
-      <c r="R30" s="102">
+      <c r="R30" s="101">
         <v>0.8213424549074265</v>
       </c>
-      <c r="S30" s="103">
+      <c r="S30" s="102">
         <v>0.008895824949533615</v>
       </c>
-      <c r="T30" s="104">
+      <c r="T30" s="103">
         <v>1.5681666012513564</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="73">
         <v>40210.0</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <v>377121.0</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="34">
         <v>487274.0</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>88617.0</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>13447.0</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>381755.0</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>3455.0</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="37">
         <v>1.2920892763860936</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="38">
         <v>0.23498293651109325</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="38">
         <v>0.03565699072711411</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="38">
         <v>1.0122878333479175</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="39">
         <v>0.00916151579996871</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="40">
         <v>0.18186277125395567</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="41">
         <v>0.027596383143775372</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="41">
         <v>0.7834503790475175</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="42">
         <v>0.0070904665547515365</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="75">
         <v>1.432413050337837</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="73">
         <v>40238.0</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <v>439721.0</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <v>327238.0</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="35">
         <v>105537.0</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>13470.0</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>198957.0</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>9274.0</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="37">
         <v>0.7441946143122571</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="38">
         <v>0.24000900571043912</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="38">
         <v>0.03063306050882264</v>
       </c>
-      <c r="N32" s="39">
+      <c r="N32" s="38">
         <v>0.4524619019787547</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="39">
         <v>0.02109064611424062</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="40">
         <v>0.3225083883901014</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="41">
         <v>0.041162701153289044</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="41">
         <v>0.6079886810211528</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="42">
         <v>0.028340229435456762</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="75">
         <v>1.181618004755279</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="73">
         <v>40269.0</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>382991.0</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="34">
         <v>182473.0</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <v>95040.0</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>996.0</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>73251.0</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>13186.0</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="37">
         <v>0.4764420051646122</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="38">
         <v>0.2481520453483241</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="38">
         <v>0.002600583303524104</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="38">
         <v>0.1912603690426146</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="39">
         <v>0.03442900747014943</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="40">
         <v>0.5208441796868578</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="41">
         <v>0.0054583417820718684</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="41">
         <v>0.40143473280978553</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="42">
         <v>0.0722627457212848</v>
       </c>
-      <c r="T33" s="76">
+      <c r="T33" s="75">
         <v>1.01172144811751</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="73">
         <v>40299.0</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <v>471193.0</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="34">
         <v>445062.0</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <v>132917.0</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>29994.0</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>244895.0</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>37256.0</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="37">
         <v>0.944542894312946</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="38">
         <v>0.2820861090890569</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="38">
         <v>0.0636554447965059</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="38">
         <v>0.519733951905058</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="39">
         <v>0.07906738852232524</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="40">
         <v>0.2986482782174169</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <v>0.06739285762433099</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <v>0.5502491787661045</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <v>0.08370968539214761</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="75">
         <v>0.9963616830588259</v>
       </c>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="73">
         <v>40330.0</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <v>483760.0</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="34">
         <v>379446.0</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <v>182734.0</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>21418.0</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>146533.0</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>28761.0</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="37">
         <v>0.7843682817926244</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="38">
         <v>0.37773689432776586</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="38">
         <v>0.044274020175293534</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="38">
         <v>0.30290433272697204</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="39">
         <v>0.05945303456259302</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="40">
         <v>0.48158104183467476</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="41">
         <v>0.05644544941836256</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="41">
         <v>0.3861761620889402</v>
       </c>
-      <c r="S35" s="43">
+      <c r="S35" s="42">
         <v>0.07579734665802249</v>
       </c>
-      <c r="T35" s="76">
+      <c r="T35" s="75">
         <v>0.9560591573616788</v>
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="73">
         <v>40360.0</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="33">
         <v>497972.0</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="34">
         <v>496878.0</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <v>267842.0</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>11979.0</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <v>180822.0</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="36">
         <v>36235.0</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="37">
         <v>0.9978030893303238</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="38">
         <v>0.5378655828038524</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="38">
         <v>0.024055569389443584</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="38">
         <v>0.36311680174788946</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="39">
         <v>0.07276513538913834</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="40">
         <v>0.5390498271205406</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="41">
         <v>0.024108533684324925</v>
       </c>
-      <c r="R36" s="42">
+      <c r="R36" s="41">
         <v>0.3639162933355874</v>
       </c>
-      <c r="S36" s="43">
+      <c r="S36" s="42">
         <v>0.072925345859547</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="75">
         <v>0.9628913009539617</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="73">
         <v>40391.0</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <v>491133.0</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="34">
         <v>403621.0</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>195738.0</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>3481.0</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <v>183689.0</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>20713.0</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="37">
         <v>0.8218160864775936</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="38">
         <v>0.39854377531137186</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="38">
         <v>0.007087693150327915</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="38">
         <v>0.3740107058576801</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="39">
         <v>0.04217391215821376</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="40">
         <v>0.4849549453571544</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="Q37" s="41">
         <v>0.008624427371222012</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R37" s="41">
         <v>0.45510268296248213</v>
       </c>
-      <c r="S37" s="43">
+      <c r="S37" s="42">
         <v>0.051317944309141494</v>
       </c>
-      <c r="T37" s="76">
+      <c r="T37" s="75">
         <v>0.9432839385710421</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="73">
         <v>40422.0</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="33">
         <v>486360.0</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="34">
         <v>449357.0</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <v>190093.0</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>39131.0</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>203060.0</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>17073.0</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="37">
         <v>0.9239184965868904</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="38">
         <v>0.39084834279134795</v>
       </c>
-      <c r="M38" s="39">
+      <c r="M38" s="38">
         <v>0.08045686322888396</v>
       </c>
-      <c r="N38" s="39">
+      <c r="N38" s="38">
         <v>0.41750966362365327</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="39">
         <v>0.03510362694300518</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="40">
         <v>0.423033356551695</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="41">
         <v>0.08708220857803484</v>
       </c>
-      <c r="R38" s="42">
+      <c r="R38" s="41">
         <v>0.4518901452519934</v>
       </c>
-      <c r="S38" s="43">
+      <c r="S38" s="42">
         <v>0.037994289618276784</v>
       </c>
-      <c r="T38" s="76">
+      <c r="T38" s="75">
         <v>0.9409410487583793</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="73">
+      <c r="B39" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="73">
         <v>40452.0</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <v>480247.0</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="34">
         <v>477065.0</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="35">
         <v>239014.0</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>23399.0</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="35">
         <v>191771.0</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>22881.0</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="37">
         <v>0.9933742428375398</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="38">
         <v>0.49768973049285054</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="38">
         <v>0.048722844702830004</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="38">
         <v>0.39931743457012747</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="39">
         <v>0.04764423307173184</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="40">
         <v>0.5010092964271116</v>
       </c>
-      <c r="Q39" s="42">
+      <c r="Q39" s="41">
         <v>0.04904782367182669</v>
       </c>
-      <c r="R39" s="42">
+      <c r="R39" s="41">
         <v>0.4019808621466677</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="42">
         <v>0.04796201775439406</v>
       </c>
-      <c r="T39" s="76">
+      <c r="T39" s="75">
         <v>0.9465364091180284</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="72">
         <v>2010.0</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="73">
         <v>40483.0</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <v>422207.0</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="34">
         <v>602536.0</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <v>129711.0</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>6440.0</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="35">
         <v>450513.0</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>15872.0</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="37">
         <v>1.427110398453839</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="38">
         <v>0.30722133929565354</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="38">
         <v>0.015253181496280261</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="38">
         <v>1.0670429433903275</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O40" s="39">
         <v>0.037592934271577685</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="40">
         <v>0.21527510389420715</v>
       </c>
-      <c r="Q40" s="42">
+      <c r="Q40" s="41">
         <v>0.010688158051967019</v>
       </c>
-      <c r="R40" s="42">
+      <c r="R40" s="41">
         <v>0.7476947435505928</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="42">
         <v>0.026341994503233</v>
       </c>
-      <c r="T40" s="76">
+      <c r="T40" s="75">
         <v>0.9877554635611583</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B41" s="12">
         <v>2010.0</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="77">
         <v>40513.0</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="79">
         <v>386267.0</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="80">
         <v>1160479.0</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="81">
         <v>215721.0</v>
       </c>
-      <c r="H41" s="82">
+      <c r="H41" s="81">
         <v>1958.0</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="81">
         <v>928305.0</v>
       </c>
-      <c r="J41" s="83">
+      <c r="J41" s="82">
         <v>14495.0</v>
       </c>
-      <c r="K41" s="84">
+      <c r="K41" s="83">
         <v>3.0043441453709483</v>
       </c>
-      <c r="L41" s="85">
+      <c r="L41" s="84">
         <v>0.5584763906831285</v>
       </c>
-      <c r="M41" s="85">
+      <c r="M41" s="84">
         <v>0.00506903256037922</v>
       </c>
-      <c r="N41" s="85">
+      <c r="N41" s="84">
         <v>2.4032728656602815</v>
       </c>
-      <c r="O41" s="86">
+      <c r="O41" s="85">
         <v>0.037525856467158725</v>
       </c>
-      <c r="P41" s="87">
+      <c r="P41" s="86">
         <v>0.18588961971737533</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <v>0.0016872343230683192</v>
       </c>
-      <c r="R41" s="88">
+      <c r="R41" s="87">
         <v>0.7999326140326538</v>
       </c>
-      <c r="S41" s="89">
+      <c r="S41" s="88">
         <v>0.012490531926902597</v>
       </c>
-      <c r="T41" s="90">
+      <c r="T41" s="89">
         <v>1.1344822708154345</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="90">
         <v>2011.0</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="91">
         <v>40544.0</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="93">
         <v>407584.0</v>
       </c>
-      <c r="F42" s="95">
+      <c r="F42" s="94">
         <v>375230.0</v>
       </c>
-      <c r="G42" s="96">
+      <c r="G42" s="95">
         <v>55025.0</v>
       </c>
-      <c r="H42" s="96">
+      <c r="H42" s="95">
         <v>1143.0</v>
       </c>
-      <c r="I42" s="96">
+      <c r="I42" s="95">
         <v>318514.0</v>
       </c>
-      <c r="J42" s="97">
+      <c r="J42" s="96">
         <v>548.0</v>
       </c>
-      <c r="K42" s="98">
+      <c r="K42" s="97">
         <v>0.9206200439663971</v>
       </c>
-      <c r="L42" s="99">
+      <c r="L42" s="98">
         <v>0.13500284603909868</v>
       </c>
-      <c r="M42" s="99">
+      <c r="M42" s="98">
         <v>0.0028043299050011777</v>
       </c>
-      <c r="N42" s="99">
+      <c r="N42" s="98">
         <v>0.7814683598963649</v>
       </c>
-      <c r="O42" s="100">
+      <c r="O42" s="99">
         <v>0.001344508125932323</v>
       </c>
-      <c r="P42" s="101">
+      <c r="P42" s="100">
         <v>0.14664339205287424</v>
       </c>
-      <c r="Q42" s="102">
+      <c r="Q42" s="101">
         <v>0.003046131705887056</v>
       </c>
-      <c r="R42" s="102">
+      <c r="R42" s="101">
         <v>0.8488500386429656</v>
       </c>
-      <c r="S42" s="103">
+      <c r="S42" s="102">
         <v>0.001460437598273059</v>
       </c>
-      <c r="T42" s="104">
+      <c r="T42" s="103">
         <v>0.9206200439663971</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B43" s="73">
+      <c r="B43" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="73">
         <v>40575.0</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <v>388040.0</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="34">
         <v>421559.0</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="35">
         <v>66883.0</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="35">
         <v>7995.0</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="35">
         <v>336015.0</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <v>10666.0</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="37">
         <v>1.08638027007525</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="38">
         <v>0.17236109679414494</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="38">
         <v>0.02060354602618287</v>
       </c>
-      <c r="N43" s="39">
+      <c r="N43" s="38">
         <v>0.8659287702298732</v>
       </c>
-      <c r="O43" s="40">
+      <c r="O43" s="39">
         <v>0.027486857025048963</v>
       </c>
-      <c r="P43" s="41">
+      <c r="P43" s="40">
         <v>0.15865632094202708</v>
       </c>
-      <c r="Q43" s="42">
+      <c r="Q43" s="41">
         <v>0.0189653168358403</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="41">
         <v>0.7970770402245</v>
       </c>
-      <c r="S43" s="43">
+      <c r="S43" s="42">
         <v>0.025301321997632596</v>
       </c>
-      <c r="T43" s="76">
+      <c r="T43" s="75">
         <v>1.001464259499462</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="73">
         <v>40603.0</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="33">
         <v>448744.0</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="34">
         <v>289991.0</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="35">
         <v>102144.0</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="35">
         <v>6091.0</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="35">
         <v>145562.0</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="36">
         <v>36194.0</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="37">
         <v>0.6462281389834739</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="38">
         <v>0.2276219849179042</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="38">
         <v>0.013573440536252295</v>
       </c>
-      <c r="N44" s="39">
+      <c r="N44" s="38">
         <v>0.3243764819139643</v>
       </c>
-      <c r="O44" s="40">
+      <c r="O44" s="39">
         <v>0.08065623161535307</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P44" s="40">
         <v>0.3522316209813408</v>
       </c>
-      <c r="Q44" s="42">
+      <c r="Q44" s="41">
         <v>0.021004100127245327</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="41">
         <v>0.5019535089020004</v>
       </c>
-      <c r="S44" s="43">
+      <c r="S44" s="42">
         <v>0.12481076998941347</v>
       </c>
-      <c r="T44" s="76">
+      <c r="T44" s="75">
         <v>0.8733590063389608</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B45" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="73">
         <v>40634.0</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <v>452181.0</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="34">
         <v>305581.0</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <v>131320.0</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>5926.0</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <v>128623.0</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>39712.0</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="37">
         <v>0.6757935428512034</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="38">
         <v>0.29041467907762597</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="38">
         <v>0.01310537152158096</v>
       </c>
-      <c r="N45" s="39">
+      <c r="N45" s="38">
         <v>0.28445025332776036</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="39">
         <v>0.08782323892423609</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="40">
         <v>0.4297387599359908</v>
       </c>
-      <c r="Q45" s="42">
+      <c r="Q45" s="41">
         <v>0.019392566946243386</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="41">
         <v>0.42091294943075647</v>
       </c>
-      <c r="S45" s="43">
+      <c r="S45" s="42">
         <v>0.12995572368700933</v>
       </c>
-      <c r="T45" s="76">
+      <c r="T45" s="75">
         <v>0.8207019072246071</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="73">
         <v>40664.0</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="33">
         <v>493834.0</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="34">
         <v>355853.0</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="35">
         <v>107440.0</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>5832.0</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="35">
         <v>223593.0</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="36">
         <v>18988.0</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="37">
         <v>0.7205923447960245</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="38">
         <v>0.21756298675263347</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="38">
         <v>0.011809636436535355</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="38">
         <v>0.45276955414167513</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="39">
         <v>0.03845016746518061</v>
       </c>
-      <c r="P46" s="41">
+      <c r="P46" s="40">
         <v>0.3019224230229898</v>
       </c>
-      <c r="Q46" s="42">
+      <c r="Q46" s="41">
         <v>0.016388789753072196</v>
       </c>
-      <c r="R46" s="42">
+      <c r="R46" s="41">
         <v>0.6283296754558765</v>
       </c>
-      <c r="S46" s="43">
+      <c r="S46" s="42">
         <v>0.05335911176806153</v>
       </c>
-      <c r="T46" s="76">
+      <c r="T46" s="75">
         <v>0.7981316509487154</v>
       </c>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B47" s="73">
+      <c r="B47" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="73">
         <v>40695.0</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <v>489764.0</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="34">
         <v>574233.0</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="35">
         <v>153702.0</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="35">
         <v>18588.0</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="35">
         <v>277937.0</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="36">
         <v>124006.0</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="37">
         <v>1.1724687808822207</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="38">
         <v>0.3138287011703596</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="38">
         <v>0.03795297326875802</v>
       </c>
-      <c r="N47" s="39">
+      <c r="N47" s="38">
         <v>0.5674916898751236</v>
       </c>
-      <c r="O47" s="40">
+      <c r="O47" s="39">
         <v>0.25319541656797967</v>
       </c>
-      <c r="P47" s="41">
+      <c r="P47" s="40">
         <v>0.2676648677453229</v>
       </c>
-      <c r="Q47" s="42">
+      <c r="Q47" s="41">
         <v>0.0323701354676586</v>
       </c>
-      <c r="R47" s="42">
+      <c r="R47" s="41">
         <v>0.4840143286784284</v>
       </c>
-      <c r="S47" s="43">
+      <c r="S47" s="42">
         <v>0.21595066810859007</v>
       </c>
-      <c r="T47" s="76">
+      <c r="T47" s="75">
         <v>0.866537171282023</v>
       </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="73">
         <v>40725.0</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="33">
         <v>506430.0</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="34">
         <v>421477.0</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>177422.0</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>5940.0</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>220721.0</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>17394.0</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="37">
         <v>0.832251248938649</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="38">
         <v>0.35033864502497875</v>
       </c>
-      <c r="M48" s="39">
+      <c r="M48" s="38">
         <v>0.011729162964279368</v>
       </c>
-      <c r="N48" s="39">
+      <c r="N48" s="38">
         <v>0.4358371344509607</v>
       </c>
-      <c r="O48" s="40">
+      <c r="O48" s="39">
         <v>0.034346306498430186</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="40">
         <v>0.4209529820132534</v>
       </c>
-      <c r="Q48" s="42">
+      <c r="Q48" s="41">
         <v>0.014093295719576631</v>
       </c>
-      <c r="R48" s="42">
+      <c r="R48" s="41">
         <v>0.5236845664176218</v>
       </c>
-      <c r="S48" s="43">
+      <c r="S48" s="42">
         <v>0.041269155849548135</v>
       </c>
-      <c r="T48" s="76">
+      <c r="T48" s="75">
         <v>0.8610882461023224</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B49" s="73">
+      <c r="B49" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="73">
         <v>40756.0</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <v>501265.0</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="34">
         <v>367324.0</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="35">
         <v>164738.0</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>6568.0</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="35">
         <v>184147.0</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>11871.0</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="37">
         <v>0.7327940311013137</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="38">
         <v>0.3286445293407679</v>
       </c>
-      <c r="M49" s="39">
+      <c r="M49" s="38">
         <v>0.01310284979003122</v>
       </c>
-      <c r="N49" s="39">
+      <c r="N49" s="38">
         <v>0.36736456764386105</v>
       </c>
-      <c r="O49" s="40">
+      <c r="O49" s="39">
         <v>0.023682084326653568</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="40">
         <v>0.44848144961940956</v>
       </c>
-      <c r="Q49" s="42">
+      <c r="Q49" s="41">
         <v>0.017880672104191395</v>
       </c>
-      <c r="R49" s="42">
+      <c r="R49" s="41">
         <v>0.5013203602269386</v>
       </c>
-      <c r="S49" s="43">
+      <c r="S49" s="42">
         <v>0.032317518049460425</v>
       </c>
-      <c r="T49" s="76">
+      <c r="T49" s="75">
         <v>0.8436500262212969</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B50" s="73">
+      <c r="B50" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="73">
         <v>40787.0</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <v>499982.0</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="34">
         <v>442596.0</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="35">
         <v>202132.0</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="35">
         <v>8619.0</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="35">
         <v>217310.0</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>14535.0</v>
       </c>
-      <c r="K50" s="38">
+      <c r="K50" s="37">
         <v>0.8852238680592501</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="38">
         <v>0.404278554027945</v>
       </c>
-      <c r="M50" s="39">
+      <c r="M50" s="38">
         <v>0.01723862059034125</v>
       </c>
-      <c r="N50" s="39">
+      <c r="N50" s="38">
         <v>0.4346356468832878</v>
       </c>
-      <c r="O50" s="40">
+      <c r="O50" s="39">
         <v>0.029071046557676075</v>
       </c>
-      <c r="P50" s="41">
+      <c r="P50" s="40">
         <v>0.4566964003289682</v>
       </c>
-      <c r="Q50" s="42">
+      <c r="Q50" s="41">
         <v>0.019473741290025215</v>
       </c>
-      <c r="R50" s="42">
+      <c r="R50" s="41">
         <v>0.49098952543628954</v>
       </c>
-      <c r="S50" s="43">
+      <c r="S50" s="42">
         <v>0.032840332944717075</v>
       </c>
-      <c r="T50" s="76">
+      <c r="T50" s="75">
         <v>0.848613504292444</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="73">
+      <c r="B51" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="73">
         <v>40817.0</v>
       </c>
-      <c r="D51" s="75" t="s">
+      <c r="D51" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="33">
         <v>482920.0</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="34">
         <v>451274.0</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="35">
         <v>106572.0</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="35">
         <v>30737.0</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="35">
         <v>260219.0</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="36">
         <v>53746.0</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K51" s="37">
         <v>0.9344694773461443</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="38">
         <v>0.2206825147022281</v>
       </c>
-      <c r="M51" s="39">
+      <c r="M51" s="38">
         <v>0.0636482233082084</v>
       </c>
-      <c r="N51" s="39">
+      <c r="N51" s="38">
         <v>0.5388449432618239</v>
       </c>
-      <c r="O51" s="40">
+      <c r="O51" s="39">
         <v>0.11129379607388387</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="40">
         <v>0.2361580769111449</v>
       </c>
-      <c r="Q51" s="42">
+      <c r="Q51" s="41">
         <v>0.06811161290036652</v>
       </c>
-      <c r="R51" s="42">
+      <c r="R51" s="41">
         <v>0.5766319353652105</v>
       </c>
-      <c r="S51" s="43">
+      <c r="S51" s="42">
         <v>0.11909837482327809</v>
       </c>
-      <c r="T51" s="76">
+      <c r="T51" s="75">
         <v>0.8574903698425775</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="73">
+      <c r="B52" s="72">
         <v>2011.0</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="73">
         <v>40848.0</v>
       </c>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="33">
         <v>417085.0</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="34">
         <v>648397.0</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="35">
         <v>55683.0</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="35">
         <v>14111.0</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="35">
         <v>548252.0</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>30351.0</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="37">
         <v>1.554591989642399</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="38">
         <v>0.1335051608185382</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M52" s="38">
         <v>0.03383243223803301</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="38">
         <v>1.3144850570027693</v>
       </c>
-      <c r="O52" s="40">
+      <c r="O52" s="39">
         <v>0.0727693395830586</v>
       </c>
-      <c r="P52" s="41">
+      <c r="P52" s="40">
         <v>0.08587794206327297</v>
       </c>
-      <c r="Q52" s="42">
+      <c r="Q52" s="41">
         <v>0.021762901432301508</v>
       </c>
-      <c r="R52" s="42">
+      <c r="R52" s="41">
         <v>0.8455498714522122</v>
       </c>
-      <c r="S52" s="43">
+      <c r="S52" s="42">
         <v>0.04680928505221338</v>
       </c>
-      <c r="T52" s="76">
+      <c r="T52" s="75">
         <v>0.9146366750926574</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B53" s="12">
         <v>2011.0</v>
       </c>
-      <c r="C53" s="78">
+      <c r="C53" s="77">
         <v>40878.0</v>
       </c>
-      <c r="D53" s="79" t="s">
+      <c r="D53" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E53" s="80">
+      <c r="E53" s="79">
         <v>398916.0</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="80">
         <v>332981.0</v>
       </c>
-      <c r="G53" s="82">
+      <c r="G53" s="81">
         <v>64015.0</v>
       </c>
-      <c r="H53" s="82">
+      <c r="H53" s="81">
         <v>2244.0</v>
       </c>
-      <c r="I53" s="82">
+      <c r="I53" s="81">
         <v>236276.0</v>
       </c>
-      <c r="J53" s="83">
+      <c r="J53" s="82">
         <v>30446.0</v>
       </c>
-      <c r="K53" s="84">
+      <c r="K53" s="83">
         <v>0.8347145765023213</v>
       </c>
-      <c r="L53" s="85">
+      <c r="L53" s="84">
         <v>0.16047238015020707</v>
       </c>
-      <c r="M53" s="85">
+      <c r="M53" s="84">
         <v>0.005625244412357489</v>
       </c>
-      <c r="N53" s="85">
+      <c r="N53" s="84">
         <v>0.5922951197745892</v>
       </c>
-      <c r="O53" s="86">
+      <c r="O53" s="85">
         <v>0.07632183216516761</v>
       </c>
-      <c r="P53" s="87">
+      <c r="P53" s="86">
         <v>0.1922482063541163</v>
       </c>
-      <c r="Q53" s="88">
+      <c r="Q53" s="87">
         <v>0.006739123253278715</v>
       </c>
-      <c r="R53" s="88">
+      <c r="R53" s="87">
         <v>0.7095780239713377</v>
       </c>
-      <c r="S53" s="89">
+      <c r="S53" s="88">
         <v>0.09143464642126728</v>
       </c>
-      <c r="T53" s="90">
+      <c r="T53" s="89">
         <v>0.908825906799022</v>
       </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="91">
+      <c r="B54" s="90">
         <v>2012.0</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C54" s="91">
         <v>40909.0</v>
       </c>
-      <c r="D54" s="93" t="s">
+      <c r="D54" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E54" s="94">
+      <c r="E54" s="93">
         <v>395010.0</v>
       </c>
-      <c r="F54" s="95">
+      <c r="F54" s="94">
         <v>218860.0</v>
       </c>
-      <c r="G54" s="96">
+      <c r="G54" s="95">
         <v>37903.0</v>
       </c>
-      <c r="H54" s="96">
+      <c r="H54" s="95">
         <v>1301.0</v>
       </c>
-      <c r="I54" s="96">
+      <c r="I54" s="95">
         <v>170309.0</v>
       </c>
-      <c r="J54" s="97">
+      <c r="J54" s="96">
         <v>9347.0</v>
       </c>
-      <c r="K54" s="98">
+      <c r="K54" s="97">
         <v>0.5540619224829751</v>
       </c>
-      <c r="L54" s="99">
+      <c r="L54" s="98">
         <v>0.09595453279663806</v>
       </c>
-      <c r="M54" s="99">
+      <c r="M54" s="98">
         <v>0.00329358750411382</v>
       </c>
-      <c r="N54" s="99">
+      <c r="N54" s="98">
         <v>0.4311511100984785</v>
       </c>
-      <c r="O54" s="100">
+      <c r="O54" s="99">
         <v>0.023662692083744715</v>
       </c>
-      <c r="P54" s="101">
+      <c r="P54" s="100">
         <v>0.173183770446861</v>
       </c>
-      <c r="Q54" s="102">
+      <c r="Q54" s="101">
         <v>0.005944439367632276</v>
       </c>
-      <c r="R54" s="102">
+      <c r="R54" s="101">
         <v>0.7781641231837705</v>
       </c>
-      <c r="S54" s="103">
+      <c r="S54" s="102">
         <v>0.04270766700173627</v>
       </c>
-      <c r="T54" s="104">
+      <c r="T54" s="103">
         <v>0.5540619224829751</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B55" s="73">
+      <c r="B55" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="73">
         <v>40940.0</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <v>380167.0</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="34">
         <v>328085.0</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="35">
         <v>34849.0</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>5096.0</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="35">
         <v>193212.0</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="36">
         <v>94928.0</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="37">
         <v>0.8630023121417693</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="38">
         <v>0.09166760923488888</v>
       </c>
-      <c r="M55" s="39">
+      <c r="M55" s="38">
         <v>0.013404635331314921</v>
       </c>
-      <c r="N55" s="39">
+      <c r="N55" s="38">
         <v>0.5082292781856395</v>
       </c>
-      <c r="O55" s="40">
+      <c r="O55" s="39">
         <v>0.24970078938992601</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="40">
         <v>0.10621942484417148</v>
       </c>
-      <c r="Q55" s="42">
+      <c r="Q55" s="41">
         <v>0.015532560159714708</v>
       </c>
-      <c r="R55" s="42">
+      <c r="R55" s="41">
         <v>0.5889083621622445</v>
       </c>
-      <c r="S55" s="43">
+      <c r="S55" s="42">
         <v>0.28933965283386925</v>
       </c>
-      <c r="T55" s="76">
+      <c r="T55" s="75">
         <v>0.7055743397959434</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B56" s="73">
+      <c r="B56" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="73">
         <v>40969.0</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="33">
         <v>433657.0</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="34">
         <v>240805.0</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="35">
         <v>64680.0</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="35">
         <v>2201.0</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="35">
         <v>168498.0</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="36">
         <v>5426.0</v>
       </c>
-      <c r="K56" s="38">
+      <c r="K56" s="37">
         <v>0.5552890879197153</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="38">
         <v>0.14915013478394215</v>
       </c>
-      <c r="M56" s="39">
+      <c r="M56" s="38">
         <v>0.005075439806114049</v>
       </c>
-      <c r="N56" s="39">
+      <c r="N56" s="38">
         <v>0.38855132051367786</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="39">
         <v>0.012512192815981295</v>
       </c>
-      <c r="P56" s="41">
+      <c r="P56" s="40">
         <v>0.2685990739394946</v>
       </c>
-      <c r="Q56" s="42">
+      <c r="Q56" s="41">
         <v>0.009140175660804386</v>
       </c>
-      <c r="R56" s="42">
+      <c r="R56" s="41">
         <v>0.6997279956811528</v>
       </c>
-      <c r="S56" s="43">
+      <c r="S56" s="42">
         <v>0.022532754718548202</v>
       </c>
-      <c r="T56" s="76">
+      <c r="T56" s="75">
         <v>0.6516610221089083</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B57" s="73">
+      <c r="B57" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="73">
         <v>41000.0</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="33">
         <v>439961.0</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="34">
         <v>241221.0</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="35">
         <v>72468.0</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="35">
         <v>27431.0</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="35">
         <v>124815.0</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="36">
         <v>16507.0</v>
       </c>
-      <c r="K57" s="38">
+      <c r="K57" s="37">
         <v>0.5482781428353877</v>
       </c>
-      <c r="L57" s="39">
+      <c r="L57" s="38">
         <v>0.1647145997031555</v>
       </c>
-      <c r="M57" s="39">
+      <c r="M57" s="38">
         <v>0.0623487081809524</v>
       </c>
-      <c r="N57" s="39">
+      <c r="N57" s="38">
         <v>0.28369560029184404</v>
       </c>
-      <c r="O57" s="40">
+      <c r="O57" s="39">
         <v>0.03751923465943572</v>
       </c>
-      <c r="P57" s="41">
+      <c r="P57" s="40">
         <v>0.30042160508413446</v>
       </c>
-      <c r="Q57" s="42">
+      <c r="Q57" s="41">
         <v>0.11371729658694724</v>
       </c>
-      <c r="R57" s="42">
+      <c r="R57" s="41">
         <v>0.5174300744960016</v>
       </c>
-      <c r="S57" s="43">
+      <c r="S57" s="42">
         <v>0.0684310238329167</v>
       </c>
-      <c r="T57" s="76">
+      <c r="T57" s="75">
         <v>0.6240745514148212</v>
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B58" s="73">
+      <c r="B58" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C58" s="73">
         <v>41030.0</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="33">
         <v>476439.0</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="34">
         <v>335803.0</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="35">
         <v>104859.0</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="35">
         <v>35603.0</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="35">
         <v>180910.0</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="36">
         <v>14431.0</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K58" s="37">
         <v>0.704818455248206</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="38">
         <v>0.22008903553235568</v>
       </c>
-      <c r="M58" s="39">
+      <c r="M58" s="38">
         <v>0.07472729982222279</v>
       </c>
-      <c r="N58" s="39">
+      <c r="N58" s="38">
         <v>0.37971282787513194</v>
       </c>
-      <c r="O58" s="40">
+      <c r="O58" s="39">
         <v>0.030289292018495548</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="40">
         <v>0.3122634401717674</v>
       </c>
-      <c r="Q58" s="42">
+      <c r="Q58" s="41">
         <v>0.10602347209524632</v>
       </c>
-      <c r="R58" s="42">
+      <c r="R58" s="41">
         <v>0.5387384865531278</v>
       </c>
-      <c r="S58" s="43">
+      <c r="S58" s="42">
         <v>0.04297460117985843</v>
       </c>
-      <c r="T58" s="76">
+      <c r="T58" s="75">
         <v>0.6421758733391241</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B59" s="73">
+      <c r="B59" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C59" s="73">
         <v>41061.0</v>
       </c>
-      <c r="D59" s="75" t="s">
+      <c r="D59" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="33">
         <v>482920.0</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="34">
         <v>363639.0</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="35">
         <v>117941.0</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="35">
         <v>19194.0</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="35">
         <v>218375.0</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="36">
         <v>8129.0</v>
       </c>
-      <c r="K59" s="38">
+      <c r="K59" s="37">
         <v>0.7530004969767249</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="38">
         <v>0.24422471630911952</v>
       </c>
-      <c r="M59" s="39">
+      <c r="M59" s="38">
         <v>0.039745713575747535</v>
       </c>
-      <c r="N59" s="39">
+      <c r="N59" s="38">
         <v>0.4521970512714321</v>
       </c>
-      <c r="O59" s="40">
+      <c r="O59" s="39">
         <v>0.016833015820425744</v>
       </c>
-      <c r="P59" s="41">
+      <c r="P59" s="40">
         <v>0.32433539856836036</v>
       </c>
-      <c r="Q59" s="42">
+      <c r="Q59" s="41">
         <v>0.05278311732239941</v>
       </c>
-      <c r="R59" s="42">
+      <c r="R59" s="41">
         <v>0.6005268961800027</v>
       </c>
-      <c r="S59" s="43">
+      <c r="S59" s="42">
         <v>0.022354587929237512</v>
       </c>
-      <c r="T59" s="76">
+      <c r="T59" s="75">
         <v>0.6626959144283658</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="73">
+      <c r="B60" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C60" s="73">
         <v>41091.0</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="33">
         <v>495692.0</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="34">
         <v>346937.0</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="35">
         <v>128067.0</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="35">
         <v>21088.0</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="35">
         <v>181313.0</v>
       </c>
-      <c r="J60" s="37">
+      <c r="J60" s="36">
         <v>16469.0</v>
       </c>
-      <c r="K60" s="38">
+      <c r="K60" s="37">
         <v>0.6999043761045165</v>
       </c>
-      <c r="L60" s="39">
+      <c r="L60" s="38">
         <v>0.2583600300186406</v>
       </c>
-      <c r="M60" s="39">
+      <c r="M60" s="38">
         <v>0.04254254658134487</v>
       </c>
-      <c r="N60" s="39">
+      <c r="N60" s="38">
         <v>0.3657775392784229</v>
       </c>
-      <c r="O60" s="40">
+      <c r="O60" s="39">
         <v>0.033224260226108145</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="40">
         <v>0.36913618322634945</v>
       </c>
-      <c r="Q60" s="42">
+      <c r="Q60" s="41">
         <v>0.06078336989136356</v>
       </c>
-      <c r="R60" s="42">
+      <c r="R60" s="41">
         <v>0.5226107333608119</v>
       </c>
-      <c r="S60" s="43">
+      <c r="S60" s="42">
         <v>0.04746971352147508</v>
       </c>
-      <c r="T60" s="76">
+      <c r="T60" s="75">
         <v>0.6686381991890061</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B61" s="73">
+      <c r="B61" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C61" s="73">
         <v>41122.0</v>
       </c>
-      <c r="D61" s="75" t="s">
+      <c r="D61" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="33">
         <v>488317.0</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="34">
         <v>282537.0</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="35">
         <v>113519.0</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="35">
         <v>20755.0</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="35">
         <v>102091.0</v>
       </c>
-      <c r="J61" s="37">
+      <c r="J61" s="36">
         <v>46172.0</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="37">
         <v>0.5785934137046223</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="38">
         <v>0.23246989148442507</v>
       </c>
-      <c r="M61" s="39">
+      <c r="M61" s="38">
         <v>0.04250312809097369</v>
       </c>
-      <c r="N61" s="39">
+      <c r="N61" s="38">
         <v>0.20906706094606578</v>
       </c>
-      <c r="O61" s="40">
+      <c r="O61" s="39">
         <v>0.09455333318315766</v>
       </c>
-      <c r="P61" s="41">
+      <c r="P61" s="40">
         <v>0.4017845450330399</v>
       </c>
-      <c r="Q61" s="42">
+      <c r="Q61" s="41">
         <v>0.07345940531682577</v>
       </c>
-      <c r="R61" s="42">
+      <c r="R61" s="41">
         <v>0.36133674527584</v>
       </c>
-      <c r="S61" s="43">
+      <c r="S61" s="42">
         <v>0.16341930437429433</v>
       </c>
-      <c r="T61" s="76">
+      <c r="T61" s="75">
         <v>0.656397552115536</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="73">
+      <c r="B62" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C62" s="73">
         <v>41153.0</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="33">
         <v>480970.0</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="34">
         <v>243908.0</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="35">
         <v>100700.0</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="35">
         <v>7555.0</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="35">
         <v>123390.0</v>
       </c>
-      <c r="J62" s="37">
+      <c r="J62" s="36">
         <v>12263.0</v>
       </c>
-      <c r="K62" s="38">
+      <c r="K62" s="37">
         <v>0.5071168679959249</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="38">
         <v>0.20936856768613427</v>
       </c>
-      <c r="M62" s="39">
+      <c r="M62" s="38">
         <v>0.015707840405846517</v>
       </c>
-      <c r="N62" s="39">
+      <c r="N62" s="38">
         <v>0.2565440671975383</v>
       </c>
-      <c r="O62" s="40">
+      <c r="O62" s="39">
         <v>0.025496392706405805</v>
       </c>
-      <c r="P62" s="41">
+      <c r="P62" s="40">
         <v>0.4128605867786215</v>
       </c>
-      <c r="Q62" s="42">
+      <c r="Q62" s="41">
         <v>0.03097479377470194</v>
       </c>
-      <c r="R62" s="42">
+      <c r="R62" s="41">
         <v>0.5058874657657806</v>
       </c>
-      <c r="S62" s="43">
+      <c r="S62" s="42">
         <v>0.050277153680896074</v>
       </c>
-      <c r="T62" s="76">
+      <c r="T62" s="75">
         <v>0.6387699591444719</v>
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B63" s="73">
+      <c r="B63" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="73">
         <v>41183.0</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <v>469390.0</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="34">
         <v>363240.0</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="35">
         <v>59045.0</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="35">
         <v>7081.0</v>
       </c>
-      <c r="I63" s="36">
+      <c r="I63" s="35">
         <v>294481.0</v>
       </c>
-      <c r="J63" s="37">
+      <c r="J63" s="36">
         <v>2633.0</v>
       </c>
-      <c r="K63" s="38">
+      <c r="K63" s="37">
         <v>0.7738554293870769</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="38">
         <v>0.12579092013038198</v>
       </c>
-      <c r="M63" s="39">
+      <c r="M63" s="38">
         <v>0.015085536547433904</v>
       </c>
-      <c r="N63" s="39">
+      <c r="N63" s="38">
         <v>0.6273695647542555</v>
       </c>
-      <c r="O63" s="40">
+      <c r="O63" s="39">
         <v>0.005609407955005433</v>
       </c>
-      <c r="P63" s="41">
+      <c r="P63" s="40">
         <v>0.16255093051426053</v>
       </c>
-      <c r="Q63" s="42">
+      <c r="Q63" s="41">
         <v>0.01949399845831957</v>
       </c>
-      <c r="R63" s="42">
+      <c r="R63" s="41">
         <v>0.8107064199977976</v>
       </c>
-      <c r="S63" s="43">
+      <c r="S63" s="42">
         <v>0.007248651029622288</v>
       </c>
-      <c r="T63" s="76">
+      <c r="T63" s="75">
         <v>0.6527286708289645</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B64" s="73">
+      <c r="B64" s="72">
         <v>2012.0</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="73">
         <v>41214.0</v>
       </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="33">
         <v>397009.0</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="34">
         <v>272417.0</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="35">
         <v>53314.0</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="35">
         <v>1085.0</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="35">
         <v>210409.0</v>
       </c>
-      <c r="J64" s="37">
+      <c r="J64" s="36">
         <v>7609.0</v>
       </c>
-      <c r="K64" s="38">
+      <c r="K64" s="37">
         <v>0.6861733613091895</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="38">
         <v>0.13428914709742096</v>
       </c>
-      <c r="M64" s="39">
+      <c r="M64" s="38">
         <v>0.002732935525391112</v>
       </c>
-      <c r="N64" s="39">
+      <c r="N64" s="38">
         <v>0.529985466324441</v>
       </c>
-      <c r="O64" s="40">
+      <c r="O64" s="39">
         <v>0.01916581236193638</v>
       </c>
-      <c r="P64" s="41">
+      <c r="P64" s="40">
         <v>0.19570731635690872</v>
       </c>
-      <c r="Q64" s="42">
+      <c r="Q64" s="41">
         <v>0.003982864505519112</v>
       </c>
-      <c r="R64" s="42">
+      <c r="R64" s="41">
         <v>0.7723783757988671</v>
       </c>
-      <c r="S64" s="43">
+      <c r="S64" s="42">
         <v>0.027931443338705002</v>
       </c>
-      <c r="T64" s="76">
+      <c r="T64" s="75">
         <v>0.6554167479834122</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B65" s="12">
         <v>2012.0</v>
       </c>
-      <c r="C65" s="78">
+      <c r="C65" s="77">
         <v>41244.0</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="80">
+      <c r="E65" s="79">
         <v>372998.0</v>
       </c>
-      <c r="F65" s="81">
+      <c r="F65" s="80">
         <v>339250.0</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="81">
         <v>46758.0</v>
       </c>
-      <c r="H65" s="82">
+      <c r="H65" s="81">
         <v>2104.0</v>
       </c>
-      <c r="I65" s="82">
+      <c r="I65" s="81">
         <v>284576.0</v>
       </c>
-      <c r="J65" s="83">
+      <c r="J65" s="82">
         <v>5812.0</v>
       </c>
-      <c r="K65" s="84">
+      <c r="K65" s="83">
         <v>0.9095223030686491</v>
       </c>
-      <c r="L65" s="85">
+      <c r="L65" s="84">
         <v>0.1253572405213969</v>
       </c>
-      <c r="M65" s="85">
+      <c r="M65" s="84">
         <v>0.005640780915715366</v>
       </c>
-      <c r="N65" s="85">
+      <c r="N65" s="84">
         <v>0.76294242864573</v>
       </c>
-      <c r="O65" s="86">
+      <c r="O65" s="85">
         <v>0.015581852985806895</v>
       </c>
-      <c r="P65" s="87">
+      <c r="P65" s="86">
         <v>0.13782756079587324</v>
       </c>
-      <c r="Q65" s="88">
+      <c r="Q65" s="87">
         <v>0.0062019159911569635</v>
       </c>
-      <c r="R65" s="88">
+      <c r="R65" s="87">
         <v>0.8388386145910096</v>
       </c>
-      <c r="S65" s="89">
+      <c r="S65" s="88">
         <v>0.017131908621960207</v>
       </c>
-      <c r="T65" s="90">
+      <c r="T65" s="89">
         <v>0.6732577510150531</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="91">
+      <c r="B66" s="90">
         <v>2013.0</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="91">
         <v>41275.0</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E66" s="94">
+      <c r="E66" s="93">
         <v>373193.0</v>
       </c>
-      <c r="F66" s="95">
+      <c r="F66" s="94">
         <v>430595.0</v>
       </c>
-      <c r="G66" s="96">
+      <c r="G66" s="95">
         <v>27059.0</v>
       </c>
-      <c r="H66" s="96">
+      <c r="H66" s="95">
         <v>6952.0</v>
       </c>
-      <c r="I66" s="96">
+      <c r="I66" s="95">
         <v>394305.0</v>
       </c>
-      <c r="J66" s="97">
+      <c r="J66" s="96">
         <v>2279.0</v>
       </c>
-      <c r="K66" s="98">
+      <c r="K66" s="97">
         <v>1.1538131744164548</v>
       </c>
-      <c r="L66" s="99">
+      <c r="L66" s="98">
         <v>0.0725067190434976</v>
       </c>
-      <c r="M66" s="99">
+      <c r="M66" s="98">
         <v>0.018628430865530704</v>
       </c>
-      <c r="N66" s="99">
+      <c r="N66" s="98">
         <v>1.0565712647343333</v>
       </c>
-      <c r="O66" s="100">
+      <c r="O66" s="99">
         <v>0.006106759773093278</v>
       </c>
-      <c r="P66" s="101">
+      <c r="P66" s="100">
         <v>0.06284095263530697</v>
       </c>
-      <c r="Q66" s="102">
+      <c r="Q66" s="101">
         <v>0.016145101545535827</v>
       </c>
-      <c r="R66" s="102">
+      <c r="R66" s="101">
         <v>0.9157212694062866</v>
       </c>
-      <c r="S66" s="103">
+      <c r="S66" s="102">
         <v>0.005292676412870563</v>
       </c>
-      <c r="T66" s="104">
+      <c r="T66" s="103">
         <v>1.1538131744164548</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="73">
+      <c r="B67" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="73">
         <v>41306.0</v>
       </c>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="33">
         <v>355161.0</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="34">
         <v>240876.0</v>
       </c>
-      <c r="G67" s="36">
+      <c r="G67" s="35">
         <v>39393.0</v>
       </c>
-      <c r="H67" s="36">
+      <c r="H67" s="35">
         <v>1406.0</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="35">
         <v>193415.0</v>
       </c>
-      <c r="J67" s="37">
+      <c r="J67" s="36">
         <v>6662.0</v>
       </c>
-      <c r="K67" s="38">
+      <c r="K67" s="37">
         <v>0.6782163582150067</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="38">
         <v>0.11091589448165762</v>
       </c>
-      <c r="M67" s="39">
+      <c r="M67" s="38">
         <v>0.003958767995359851</v>
       </c>
-      <c r="N67" s="39">
+      <c r="N67" s="38">
         <v>0.5445840055636739</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="39">
         <v>0.01875769017431531</v>
       </c>
-      <c r="P67" s="41">
+      <c r="P67" s="40">
         <v>0.16354057689433568</v>
       </c>
-      <c r="Q67" s="42">
+      <c r="Q67" s="41">
         <v>0.005837028180474601</v>
       </c>
-      <c r="R67" s="42">
+      <c r="R67" s="41">
         <v>0.8029650110430263</v>
       </c>
-      <c r="S67" s="43">
+      <c r="S67" s="42">
         <v>0.027657383882163437</v>
       </c>
-      <c r="T67" s="76">
+      <c r="T67" s="75">
         <v>0.9219019872204999</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="73">
+      <c r="B68" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="73">
         <v>41334.0</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D68" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="33">
         <v>407029.0</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="34">
         <v>322275.0</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="35">
         <v>75466.0</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="35">
         <v>5315.0</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="35">
         <v>195136.0</v>
       </c>
-      <c r="J68" s="37">
+      <c r="J68" s="36">
         <v>46358.0</v>
       </c>
-      <c r="K68" s="38">
+      <c r="K68" s="37">
         <v>0.7917740504976304</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="38">
         <v>0.18540693660648258</v>
       </c>
-      <c r="M68" s="39">
+      <c r="M68" s="38">
         <v>0.01305803763368212</v>
       </c>
-      <c r="N68" s="39">
+      <c r="N68" s="38">
         <v>0.4794154716248719</v>
       </c>
-      <c r="O68" s="40">
+      <c r="O68" s="39">
         <v>0.11389360463259375</v>
       </c>
-      <c r="P68" s="41">
+      <c r="P68" s="40">
         <v>0.23416647273291444</v>
       </c>
-      <c r="Q68" s="42">
+      <c r="Q68" s="41">
         <v>0.016492126289659452</v>
       </c>
-      <c r="R68" s="42">
+      <c r="R68" s="41">
         <v>0.6054953068031961</v>
       </c>
-      <c r="S68" s="43">
+      <c r="S68" s="42">
         <v>0.14384609417423008</v>
       </c>
-      <c r="T68" s="76">
+      <c r="T68" s="75">
         <v>0.8752517872823532</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="73">
+      <c r="B69" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="73">
         <v>41365.0</v>
       </c>
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="33">
         <v>435020.0</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="34">
         <v>169788.0</v>
       </c>
-      <c r="G69" s="36">
+      <c r="G69" s="35">
         <v>48384.0</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="35">
         <v>4992.0</v>
       </c>
-      <c r="I69" s="36">
+      <c r="I69" s="35">
         <v>99824.0</v>
       </c>
-      <c r="J69" s="37">
+      <c r="J69" s="36">
         <v>16588.0</v>
       </c>
-      <c r="K69" s="38">
+      <c r="K69" s="37">
         <v>0.3902992965840651</v>
       </c>
-      <c r="L69" s="39">
+      <c r="L69" s="38">
         <v>0.11122247252999862</v>
       </c>
-      <c r="M69" s="39">
+      <c r="M69" s="38">
         <v>0.01147533446738081</v>
       </c>
-      <c r="N69" s="39">
+      <c r="N69" s="38">
         <v>0.22946990942945153</v>
       </c>
-      <c r="O69" s="40">
+      <c r="O69" s="39">
         <v>0.03813158015723415</v>
       </c>
-      <c r="P69" s="41">
+      <c r="P69" s="40">
         <v>0.28496713548660685</v>
       </c>
-      <c r="Q69" s="42">
+      <c r="Q69" s="41">
         <v>0.02940137112163404</v>
       </c>
-      <c r="R69" s="42">
+      <c r="R69" s="41">
         <v>0.5879331872688294</v>
       </c>
-      <c r="S69" s="43">
+      <c r="S69" s="42">
         <v>0.09769830612292978</v>
       </c>
-      <c r="T69" s="76">
+      <c r="T69" s="75">
         <v>0.7409142748708453</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="73">
+      <c r="B70" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="73">
         <v>41395.0</v>
       </c>
-      <c r="D70" s="75" t="s">
+      <c r="D70" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="33">
         <v>467425.0</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="34">
         <v>235457.0</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="35">
         <v>72564.0</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70" s="35">
         <v>8519.0</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="35">
         <v>126175.0</v>
       </c>
-      <c r="J70" s="37">
+      <c r="J70" s="36">
         <v>28199.0</v>
       </c>
-      <c r="K70" s="38">
+      <c r="K70" s="37">
         <v>0.5037321495427074</v>
       </c>
-      <c r="L70" s="39">
+      <c r="L70" s="38">
         <v>0.15524201743595228</v>
       </c>
-      <c r="M70" s="39">
+      <c r="M70" s="38">
         <v>0.018225383751403968</v>
       </c>
-      <c r="N70" s="39">
+      <c r="N70" s="38">
         <v>0.2699363534256833</v>
       </c>
-      <c r="O70" s="40">
+      <c r="O70" s="39">
         <v>0.060328394929667864</v>
       </c>
-      <c r="P70" s="41">
+      <c r="P70" s="40">
         <v>0.3081836598614609</v>
       </c>
-      <c r="Q70" s="42">
+      <c r="Q70" s="41">
         <v>0.03618070390771988</v>
       </c>
-      <c r="R70" s="42">
+      <c r="R70" s="41">
         <v>0.5358727920596966</v>
       </c>
-      <c r="S70" s="43">
+      <c r="S70" s="42">
         <v>0.11976284417112254</v>
       </c>
-      <c r="T70" s="76">
+      <c r="T70" s="75">
         <v>0.6865108340841327</v>
       </c>
     </row>
     <row r="71" ht="12.0" customHeight="1">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B71" s="73">
+      <c r="B71" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="73">
         <v>41426.0</v>
       </c>
-      <c r="D71" s="75" t="s">
+      <c r="D71" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="33">
         <v>472401.0</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="34">
         <v>310118.0</v>
       </c>
-      <c r="G71" s="36">
+      <c r="G71" s="35">
         <v>88583.0</v>
       </c>
-      <c r="H71" s="36">
+      <c r="H71" s="35">
         <v>54650.0</v>
       </c>
-      <c r="I71" s="36">
+      <c r="I71" s="35">
         <v>138776.0</v>
       </c>
-      <c r="J71" s="37">
+      <c r="J71" s="36">
         <v>28109.0</v>
       </c>
-      <c r="K71" s="38">
+      <c r="K71" s="37">
         <v>0.6564719380356943</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="38">
         <v>0.1875165378566091</v>
       </c>
-      <c r="M71" s="39">
+      <c r="M71" s="38">
         <v>0.11568561455204371</v>
       </c>
-      <c r="N71" s="39">
+      <c r="N71" s="38">
         <v>0.2937673713645822</v>
       </c>
-      <c r="O71" s="40">
+      <c r="O71" s="39">
         <v>0.059502414262459224</v>
       </c>
-      <c r="P71" s="41">
+      <c r="P71" s="40">
         <v>0.28564288432145185</v>
       </c>
-      <c r="Q71" s="42">
+      <c r="Q71" s="41">
         <v>0.17622324405548856</v>
       </c>
-      <c r="R71" s="42">
+      <c r="R71" s="41">
         <v>0.44749417963484867</v>
       </c>
-      <c r="S71" s="43">
+      <c r="S71" s="42">
         <v>0.09063969198821094</v>
       </c>
-      <c r="T71" s="76">
+      <c r="T71" s="75">
         <v>0.6808578022164512</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="73">
+      <c r="B72" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C72" s="73">
         <v>41456.0</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="33">
         <v>490740.0</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="34">
         <v>192378.0</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G72" s="35">
         <v>78030.0</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="35">
         <v>11099.0</v>
       </c>
-      <c r="I72" s="36">
+      <c r="I72" s="35">
         <v>86858.0</v>
       </c>
-      <c r="J72" s="37">
+      <c r="J72" s="36">
         <v>16391.0</v>
       </c>
-      <c r="K72" s="38">
+      <c r="K72" s="37">
         <v>0.3920161388922851</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="38">
         <v>0.15900476830908425</v>
       </c>
-      <c r="M72" s="39">
+      <c r="M72" s="38">
         <v>0.02261686432734238</v>
       </c>
-      <c r="N72" s="39">
+      <c r="N72" s="38">
         <v>0.17699392753800383</v>
       </c>
-      <c r="O72" s="40">
+      <c r="O72" s="39">
         <v>0.03340057871785467</v>
       </c>
-      <c r="P72" s="41">
+      <c r="P72" s="40">
         <v>0.40560770982128935</v>
       </c>
-      <c r="Q72" s="42">
+      <c r="Q72" s="41">
         <v>0.05769370718065475</v>
       </c>
-      <c r="R72" s="42">
+      <c r="R72" s="41">
         <v>0.4514965328675836</v>
       </c>
-      <c r="S72" s="43">
+      <c r="S72" s="42">
         <v>0.0852020501304723</v>
       </c>
-      <c r="T72" s="76">
+      <c r="T72" s="75">
         <v>0.6336243393383937</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B73" s="73">
+      <c r="B73" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C73" s="73">
         <v>41487.0</v>
       </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="33">
         <v>483281.0</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="34">
         <v>167310.0</v>
       </c>
-      <c r="G73" s="36">
+      <c r="G73" s="35">
         <v>69807.0</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73" s="35">
         <v>6768.0</v>
       </c>
-      <c r="I73" s="36">
+      <c r="I73" s="35">
         <v>85971.0</v>
       </c>
-      <c r="J73" s="37">
+      <c r="J73" s="36">
         <v>4764.0</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="37">
         <v>0.34619610537140916</v>
       </c>
-      <c r="L73" s="39">
+      <c r="L73" s="38">
         <v>0.14444391565155676</v>
       </c>
-      <c r="M73" s="39">
+      <c r="M73" s="38">
         <v>0.014004274945632044</v>
       </c>
-      <c r="N73" s="39">
+      <c r="N73" s="38">
         <v>0.1778902957078801</v>
       </c>
-      <c r="O73" s="40">
+      <c r="O73" s="39">
         <v>0.009857619066340287</v>
       </c>
-      <c r="P73" s="41">
+      <c r="P73" s="40">
         <v>0.4172314864622557</v>
       </c>
-      <c r="Q73" s="42">
+      <c r="Q73" s="41">
         <v>0.04045185583647122</v>
       </c>
-      <c r="R73" s="42">
+      <c r="R73" s="41">
         <v>0.5138425676887215</v>
       </c>
-      <c r="S73" s="43">
+      <c r="S73" s="42">
         <v>0.02847409001255155</v>
       </c>
-      <c r="T73" s="76">
+      <c r="T73" s="75">
         <v>0.5937567625744421</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B74" s="73">
+      <c r="B74" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="73">
         <v>41518.0</v>
       </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="33">
         <v>479049.0</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="34">
         <v>250396.0</v>
       </c>
-      <c r="G74" s="36">
+      <c r="G74" s="35">
         <v>61213.0</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74" s="35">
         <v>19464.0</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="35">
         <v>152623.0</v>
       </c>
-      <c r="J74" s="37">
+      <c r="J74" s="36">
         <v>17096.0</v>
       </c>
-      <c r="K74" s="38">
+      <c r="K74" s="37">
         <v>0.5226939206636482</v>
       </c>
-      <c r="L74" s="39">
+      <c r="L74" s="38">
         <v>0.12778024794958345</v>
       </c>
-      <c r="M74" s="39">
+      <c r="M74" s="38">
         <v>0.040630499176493425</v>
       </c>
-      <c r="N74" s="39">
+      <c r="N74" s="38">
         <v>0.3185958012645888</v>
       </c>
-      <c r="O74" s="40">
+      <c r="O74" s="39">
         <v>0.035687372272982514</v>
       </c>
-      <c r="P74" s="41">
+      <c r="P74" s="40">
         <v>0.24446476780779244</v>
       </c>
-      <c r="Q74" s="42">
+      <c r="Q74" s="41">
         <v>0.07773287113212671</v>
       </c>
-      <c r="R74" s="42">
+      <c r="R74" s="41">
         <v>0.6095265100081471</v>
       </c>
-      <c r="S74" s="43">
+      <c r="S74" s="42">
         <v>0.06827585105193373</v>
       </c>
-      <c r="T74" s="76">
+      <c r="T74" s="75">
         <v>0.5851673063273803</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="73">
+      <c r="B75" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C75" s="73">
         <v>41548.0</v>
       </c>
-      <c r="D75" s="75" t="s">
+      <c r="D75" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="33">
         <v>464399.0</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="34">
         <v>270633.0</v>
       </c>
-      <c r="G75" s="36">
+      <c r="G75" s="35">
         <v>43543.0</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75" s="35">
         <v>13211.0</v>
       </c>
-      <c r="I75" s="36">
+      <c r="I75" s="35">
         <v>202171.0</v>
       </c>
-      <c r="J75" s="37">
+      <c r="J75" s="36">
         <v>11708.0</v>
       </c>
-      <c r="K75" s="38">
+      <c r="K75" s="37">
         <v>0.5827596527985633</v>
       </c>
-      <c r="L75" s="39">
+      <c r="L75" s="38">
         <v>0.09376204513790942</v>
       </c>
-      <c r="M75" s="39">
+      <c r="M75" s="38">
         <v>0.028447520343497724</v>
       </c>
-      <c r="N75" s="39">
+      <c r="N75" s="38">
         <v>0.43533900805126624</v>
       </c>
-      <c r="O75" s="40">
+      <c r="O75" s="39">
         <v>0.02521107926588989</v>
       </c>
-      <c r="P75" s="41">
+      <c r="P75" s="40">
         <v>0.16089316528287387</v>
       </c>
-      <c r="Q75" s="42">
+      <c r="Q75" s="41">
         <v>0.04881518514002357</v>
       </c>
-      <c r="R75" s="42">
+      <c r="R75" s="41">
         <v>0.747030110888177</v>
       </c>
-      <c r="S75" s="43">
+      <c r="S75" s="42">
         <v>0.04326153868892559</v>
       </c>
-      <c r="T75" s="76">
+      <c r="T75" s="75">
         <v>0.5849147796439594</v>
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B76" s="73">
+      <c r="B76" s="72">
         <v>2013.0</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76" s="73">
         <v>41579.0</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="33">
         <v>394393.0</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="34">
         <v>130737.0</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G76" s="35">
         <v>25811.0</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76" s="35">
         <v>3943.0</v>
       </c>
-      <c r="I76" s="36">
+      <c r="I76" s="35">
         <v>90422.0</v>
       </c>
-      <c r="J76" s="37">
+      <c r="J76" s="36">
         <v>10561.0</v>
       </c>
-      <c r="K76" s="38">
+      <c r="K76" s="37">
         <v>0.33148914914818467</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="38">
         <v>0.06544487351448935</v>
       </c>
-      <c r="M76" s="39">
+      <c r="M76" s="38">
         <v>0.009997641945977744</v>
       </c>
-      <c r="N76" s="39">
+      <c r="N76" s="38">
         <v>0.229268775054324</v>
       </c>
-      <c r="O76" s="40">
+      <c r="O76" s="39">
         <v>0.026777858633393596</v>
       </c>
-      <c r="P76" s="41">
+      <c r="P76" s="40">
         <v>0.1974268952171153</v>
       </c>
-      <c r="Q76" s="42">
+      <c r="Q76" s="41">
         <v>0.030159786441481755</v>
       </c>
-      <c r="R76" s="42">
+      <c r="R76" s="41">
         <v>0.6916328200891867</v>
       </c>
-      <c r="S76" s="43">
+      <c r="S76" s="42">
         <v>0.08078049825221628</v>
       </c>
-      <c r="T76" s="76">
+      <c r="T76" s="75">
         <v>0.5641874033484644</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="76" t="s">
         <v>250</v>
       </c>
       <c r="B77" s="12">
         <v>2013.0</v>
       </c>
-      <c r="C77" s="78">
+      <c r="C77" s="77">
         <v>41609.0</v>
       </c>
-      <c r="D77" s="79" t="s">
+      <c r="D77" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="E77" s="80">
+      <c r="E77" s="79">
         <v>374709.0</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="80">
         <v>328662.0</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="81">
         <v>32846.0</v>
       </c>
-      <c r="H77" s="82">
+      <c r="H77" s="81">
         <v>1246.0</v>
       </c>
-      <c r="I77" s="82">
+      <c r="I77" s="81">
         <v>283360.0</v>
       </c>
-      <c r="J77" s="83">
+      <c r="J77" s="82">
         <v>11210.0</v>
       </c>
-      <c r="K77" s="84">
+      <c r="K77" s="83">
         <v>0.8771126394081807</v>
       </c>
-      <c r="L77" s="85">
+      <c r="L77" s="84">
         <v>0.08765735544115567</v>
       </c>
-      <c r="M77" s="85">
+      <c r="M77" s="84">
         <v>0.0033252470583839725</v>
       </c>
-      <c r="N77" s="85">
+      <c r="N77" s="84">
         <v>0.7562134883336136</v>
       </c>
-      <c r="O77" s="86">
+      <c r="O77" s="85">
         <v>0.029916548575027554</v>
       </c>
-      <c r="P77" s="87">
+      <c r="P77" s="86">
         <v>0.0999385386810766</v>
       </c>
-      <c r="Q77" s="88">
+      <c r="Q77" s="87">
         <v>0.003791128880126087</v>
       </c>
-      <c r="R77" s="88">
+      <c r="R77" s="87">
         <v>0.8621623430758651</v>
       </c>
-      <c r="S77" s="89">
+      <c r="S77" s="88">
         <v>0.034107989362932134</v>
       </c>
-      <c r="T77" s="90">
+      <c r="T77" s="89">
         <v>0.5867505003078818</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B78" s="91">
+      <c r="B78" s="90">
         <v>2014.0</v>
       </c>
-      <c r="C78" s="92">
+      <c r="C78" s="91">
         <v>41640.0</v>
       </c>
-      <c r="D78" s="93" t="s">
+      <c r="D78" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E78" s="94">
+      <c r="E78" s="93">
         <v>376454.0</v>
       </c>
-      <c r="F78" s="95">
+      <c r="F78" s="94">
         <v>156069.0</v>
       </c>
-      <c r="G78" s="96">
+      <c r="G78" s="95">
         <v>25207.0</v>
       </c>
-      <c r="H78" s="96">
+      <c r="H78" s="95">
         <v>6107.0</v>
       </c>
-      <c r="I78" s="96">
+      <c r="I78" s="95">
         <v>122577.0</v>
       </c>
-      <c r="J78" s="97">
+      <c r="J78" s="96">
         <v>2178.0</v>
       </c>
-      <c r="K78" s="98">
+      <c r="K78" s="97">
         <v>0.4145765485291696</v>
       </c>
-      <c r="L78" s="99">
+      <c r="L78" s="98">
         <v>0.0669590441328821</v>
       </c>
-      <c r="M78" s="99">
+      <c r="M78" s="98">
         <v>0.01622243355097834</v>
       </c>
-      <c r="N78" s="99">
+      <c r="N78" s="98">
         <v>0.3256095034187444</v>
       </c>
-      <c r="O78" s="100">
+      <c r="O78" s="99">
         <v>0.005785567426564733</v>
       </c>
-      <c r="P78" s="101">
+      <c r="P78" s="100">
         <v>0.16151189537960775</v>
       </c>
-      <c r="Q78" s="102">
+      <c r="Q78" s="101">
         <v>0.03913012834066983</v>
       </c>
-      <c r="R78" s="102">
+      <c r="R78" s="101">
         <v>0.7854026103838687</v>
       </c>
-      <c r="S78" s="103">
+      <c r="S78" s="102">
         <v>0.013955365895853757</v>
       </c>
-      <c r="T78" s="104">
+      <c r="T78" s="103">
         <v>0.4145765485291696</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B79" s="73">
+      <c r="B79" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="73">
         <v>41671.0</v>
       </c>
-      <c r="D79" s="75" t="s">
+      <c r="D79" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="33">
         <v>357119.0</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="34">
         <v>137782.0</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="35">
         <v>22898.0</v>
       </c>
-      <c r="H79" s="36">
+      <c r="H79" s="35">
         <v>660.0</v>
       </c>
-      <c r="I79" s="36">
+      <c r="I79" s="35">
         <v>110805.0</v>
       </c>
-      <c r="J79" s="37">
+      <c r="J79" s="36">
         <v>3419.0</v>
       </c>
-      <c r="K79" s="38">
+      <c r="K79" s="37">
         <v>0.3858153724668808</v>
       </c>
-      <c r="L79" s="39">
+      <c r="L79" s="38">
         <v>0.06411868312803295</v>
       </c>
-      <c r="M79" s="39">
+      <c r="M79" s="38">
         <v>0.0018481234546467704</v>
       </c>
-      <c r="N79" s="39">
+      <c r="N79" s="38">
         <v>0.3102747263517203</v>
       </c>
-      <c r="O79" s="40">
+      <c r="O79" s="39">
         <v>0.00957383953248077</v>
       </c>
-      <c r="P79" s="41">
+      <c r="P79" s="40">
         <v>0.16619006836887257</v>
       </c>
-      <c r="Q79" s="42">
+      <c r="Q79" s="41">
         <v>0.004790175784935623</v>
       </c>
-      <c r="R79" s="42">
+      <c r="R79" s="41">
         <v>0.8042051937118057</v>
       </c>
-      <c r="S79" s="43">
+      <c r="S79" s="42">
         <v>0.024814562134386205</v>
       </c>
-      <c r="T79" s="76">
+      <c r="T79" s="75">
         <v>0.40057499389972095</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="73">
+      <c r="B80" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="73">
         <v>41699.0</v>
       </c>
-      <c r="D80" s="75" t="s">
+      <c r="D80" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="33">
         <v>412587.0</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="34">
         <v>129835.0</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G80" s="35">
         <v>35511.0</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H80" s="35">
         <v>7117.0</v>
       </c>
-      <c r="I80" s="36">
+      <c r="I80" s="35">
         <v>83878.0</v>
       </c>
-      <c r="J80" s="37">
+      <c r="J80" s="36">
         <v>3329.0</v>
       </c>
-      <c r="K80" s="38">
+      <c r="K80" s="37">
         <v>0.3146851451936198</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L80" s="38">
         <v>0.08606911996742506</v>
       </c>
-      <c r="M80" s="39">
+      <c r="M80" s="38">
         <v>0.01724969521579691</v>
       </c>
-      <c r="N80" s="39">
+      <c r="N80" s="38">
         <v>0.20329772872145754</v>
       </c>
-      <c r="O80" s="40">
+      <c r="O80" s="39">
         <v>0.008068601288940273</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="40">
         <v>0.27350868409904877</v>
       </c>
-      <c r="Q80" s="42">
+      <c r="Q80" s="41">
         <v>0.054815727654330494</v>
       </c>
-      <c r="R80" s="42">
+      <c r="R80" s="41">
         <v>0.6460353525628683</v>
       </c>
-      <c r="S80" s="43">
+      <c r="S80" s="42">
         <v>0.025640235683752455</v>
       </c>
-      <c r="T80" s="76">
+      <c r="T80" s="75">
         <v>0.3696569414392406</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B81" s="73">
+      <c r="B81" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="73">
         <v>41730.0</v>
       </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="33">
         <v>437454.0</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="34">
         <v>196475.0</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="35">
         <v>32530.0</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="35">
         <v>1396.0</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="35">
         <v>153698.0</v>
       </c>
-      <c r="J81" s="37">
+      <c r="J81" s="36">
         <v>8851.0</v>
       </c>
-      <c r="K81" s="38">
+      <c r="K81" s="37">
         <v>0.44913293740599014</v>
       </c>
-      <c r="L81" s="39">
+      <c r="L81" s="38">
         <v>0.07436210435840111</v>
       </c>
-      <c r="M81" s="39">
+      <c r="M81" s="38">
         <v>0.0031911926739725776</v>
       </c>
-      <c r="N81" s="39">
+      <c r="N81" s="38">
         <v>0.3513466558769608</v>
       </c>
-      <c r="O81" s="40">
+      <c r="O81" s="39">
         <v>0.02023298449665565</v>
       </c>
-      <c r="P81" s="41">
+      <c r="P81" s="40">
         <v>0.1655681384400051</v>
       </c>
-      <c r="Q81" s="42">
+      <c r="Q81" s="41">
         <v>0.007105229672986385</v>
       </c>
-      <c r="R81" s="42">
+      <c r="R81" s="41">
         <v>0.7822776434660899</v>
       </c>
-      <c r="S81" s="43">
+      <c r="S81" s="42">
         <v>0.045048988420918694</v>
       </c>
-      <c r="T81" s="76">
+      <c r="T81" s="75">
         <v>0.391611213338604</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B82" s="73">
+      <c r="B82" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="73">
         <v>41760.0</v>
       </c>
-      <c r="D82" s="75" t="s">
+      <c r="D82" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="33">
         <v>476993.0</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="34">
         <v>261679.0</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G82" s="35">
         <v>62324.0</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H82" s="35">
         <v>11011.0</v>
       </c>
-      <c r="I82" s="36">
+      <c r="I82" s="35">
         <v>175474.0</v>
       </c>
-      <c r="J82" s="37">
+      <c r="J82" s="36">
         <v>12870.0</v>
       </c>
-      <c r="K82" s="38">
+      <c r="K82" s="37">
         <v>0.548601342158061</v>
       </c>
-      <c r="L82" s="39">
+      <c r="L82" s="38">
         <v>0.13066019836769094</v>
       </c>
-      <c r="M82" s="39">
+      <c r="M82" s="38">
         <v>0.023084196204137167</v>
       </c>
-      <c r="N82" s="39">
+      <c r="N82" s="38">
         <v>0.36787541955542324</v>
       </c>
-      <c r="O82" s="40">
+      <c r="O82" s="39">
         <v>0.026981528030809675</v>
       </c>
-      <c r="P82" s="41">
+      <c r="P82" s="40">
         <v>0.2381696658883594</v>
       </c>
-      <c r="Q82" s="42">
+      <c r="Q82" s="41">
         <v>0.042078271470007145</v>
       </c>
-      <c r="R82" s="42">
+      <c r="R82" s="41">
         <v>0.6705696674169498</v>
       </c>
-      <c r="S82" s="43">
+      <c r="S82" s="42">
         <v>0.04918239522468368</v>
       </c>
-      <c r="T82" s="76">
+      <c r="T82" s="75">
         <v>0.42795156961031383</v>
       </c>
     </row>
     <row r="83" ht="12.0" customHeight="1">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="73">
+      <c r="B83" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C83" s="74">
+      <c r="C83" s="73">
         <v>41791.0</v>
       </c>
-      <c r="D83" s="75" t="s">
+      <c r="D83" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="33">
         <v>485131.0</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="34">
         <v>257416.0</v>
       </c>
-      <c r="G83" s="36">
+      <c r="G83" s="35">
         <v>83581.0</v>
       </c>
-      <c r="H83" s="36">
+      <c r="H83" s="35">
         <v>18483.0</v>
       </c>
-      <c r="I83" s="36">
+      <c r="I83" s="35">
         <v>130669.0</v>
       </c>
-      <c r="J83" s="37">
+      <c r="J83" s="36">
         <v>24683.0</v>
       </c>
-      <c r="K83" s="38">
+      <c r="K83" s="37">
         <v>0.5306113194168173</v>
       </c>
-      <c r="L83" s="39">
+      <c r="L83" s="38">
         <v>0.1722854239370397</v>
       </c>
-      <c r="M83" s="39">
+      <c r="M83" s="38">
         <v>0.038098987696106826</v>
       </c>
-      <c r="N83" s="39">
+      <c r="N83" s="38">
         <v>0.2693478668648262</v>
       </c>
-      <c r="O83" s="40">
+      <c r="O83" s="39">
         <v>0.0508790409188446</v>
       </c>
-      <c r="P83" s="41">
+      <c r="P83" s="40">
         <v>0.3246923268172919</v>
       </c>
-      <c r="Q83" s="42">
+      <c r="Q83" s="41">
         <v>0.0718020635857911</v>
       </c>
-      <c r="R83" s="42">
+      <c r="R83" s="41">
         <v>0.5076180190819529</v>
       </c>
-      <c r="S83" s="43">
+      <c r="S83" s="42">
         <v>0.09588759051496411</v>
       </c>
-      <c r="T83" s="76">
+      <c r="T83" s="75">
         <v>0.4475150231484937</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B84" s="73">
+      <c r="B84" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C84" s="74">
+      <c r="C84" s="73">
         <v>41821.0</v>
       </c>
-      <c r="D84" s="75" t="s">
+      <c r="D84" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="33">
         <v>502260.0</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="34">
         <v>370841.0</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="35">
         <v>72072.0</v>
       </c>
-      <c r="H84" s="36">
+      <c r="H84" s="35">
         <v>8899.0</v>
       </c>
-      <c r="I84" s="36">
+      <c r="I84" s="35">
         <v>276927.0</v>
       </c>
-      <c r="J84" s="37">
+      <c r="J84" s="36">
         <v>12943.0</v>
       </c>
-      <c r="K84" s="38">
+      <c r="K84" s="37">
         <v>0.738344682037192</v>
       </c>
-      <c r="L84" s="39">
+      <c r="L84" s="38">
         <v>0.14349540078843626</v>
       </c>
-      <c r="M84" s="39">
+      <c r="M84" s="38">
         <v>0.01771791502409111</v>
       </c>
-      <c r="N84" s="39">
+      <c r="N84" s="38">
         <v>0.5513618444630272</v>
       </c>
-      <c r="O84" s="40">
+      <c r="O84" s="39">
         <v>0.0257695217616374</v>
       </c>
-      <c r="P84" s="41">
+      <c r="P84" s="40">
         <v>0.1943474427045553</v>
       </c>
-      <c r="Q84" s="42">
+      <c r="Q84" s="41">
         <v>0.023996807257018506</v>
       </c>
-      <c r="R84" s="42">
+      <c r="R84" s="41">
         <v>0.7467539996925906</v>
       </c>
-      <c r="S84" s="43">
+      <c r="S84" s="42">
         <v>0.03490175034583555</v>
       </c>
-      <c r="T84" s="76">
+      <c r="T84" s="75">
         <v>0.49543897338515314</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="73">
+      <c r="B85" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C85" s="74">
+      <c r="C85" s="73">
         <v>41852.0</v>
       </c>
-      <c r="D85" s="75" t="s">
+      <c r="D85" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E85" s="33">
         <v>497913.0</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="34">
         <v>285124.0</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="35">
         <v>91409.0</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H85" s="35">
         <v>13545.0</v>
       </c>
-      <c r="I85" s="36">
+      <c r="I85" s="35">
         <v>169776.0</v>
       </c>
-      <c r="J85" s="37">
+      <c r="J85" s="36">
         <v>10394.0</v>
       </c>
-      <c r="K85" s="38">
+      <c r="K85" s="37">
         <v>0.5726381918126259</v>
       </c>
-      <c r="L85" s="39">
+      <c r="L85" s="38">
         <v>0.18358428078800915</v>
       </c>
-      <c r="M85" s="39">
+      <c r="M85" s="38">
         <v>0.027203547607714602</v>
       </c>
-      <c r="N85" s="39">
+      <c r="N85" s="38">
         <v>0.3409752306125769</v>
       </c>
-      <c r="O85" s="40">
+      <c r="O85" s="39">
         <v>0.020875132804325253</v>
       </c>
-      <c r="P85" s="41">
+      <c r="P85" s="40">
         <v>0.32059384688766995</v>
       </c>
-      <c r="Q85" s="42">
+      <c r="Q85" s="41">
         <v>0.04750564666601198</v>
       </c>
-      <c r="R85" s="42">
+      <c r="R85" s="41">
         <v>0.5954461918323256</v>
       </c>
-      <c r="S85" s="43">
+      <c r="S85" s="42">
         <v>0.03645431461399251</v>
       </c>
-      <c r="T85" s="76">
+      <c r="T85" s="75">
         <v>0.506279204413196</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B86" s="73">
+      <c r="B86" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="73">
         <v>41883.0</v>
       </c>
-      <c r="D86" s="75" t="s">
+      <c r="D86" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="33">
         <v>485933.0</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="34">
         <v>328393.0</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G86" s="35">
         <v>100983.0</v>
       </c>
-      <c r="H86" s="36">
+      <c r="H86" s="35">
         <v>7647.0</v>
       </c>
-      <c r="I86" s="36">
+      <c r="I86" s="35">
         <v>211696.0</v>
       </c>
-      <c r="J86" s="37">
+      <c r="J86" s="36">
         <v>8067.0</v>
       </c>
-      <c r="K86" s="38">
+      <c r="K86" s="37">
         <v>0.6757989270125717</v>
       </c>
-      <c r="L86" s="39">
+      <c r="L86" s="38">
         <v>0.20781259967937968</v>
       </c>
-      <c r="M86" s="39">
+      <c r="M86" s="38">
         <v>0.015736737369143484</v>
       </c>
-      <c r="N86" s="39">
+      <c r="N86" s="38">
         <v>0.43564853590927144</v>
       </c>
-      <c r="O86" s="40">
+      <c r="O86" s="39">
         <v>0.0166010540547771</v>
       </c>
-      <c r="P86" s="41">
+      <c r="P86" s="40">
         <v>0.3075065546464145</v>
       </c>
-      <c r="Q86" s="42">
+      <c r="Q86" s="41">
         <v>0.0232861236384454</v>
       </c>
-      <c r="R86" s="42">
+      <c r="R86" s="41">
         <v>0.6446422426787416</v>
       </c>
-      <c r="S86" s="43">
+      <c r="S86" s="42">
         <v>0.02456507903639846</v>
       </c>
-      <c r="T86" s="76">
+      <c r="T86" s="75">
         <v>0.5267103588333278</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="73">
+      <c r="B87" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C87" s="74">
+      <c r="C87" s="73">
         <v>41913.0</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D87" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="33">
         <v>475201.0</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="34">
         <v>350012.0</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G87" s="35">
         <v>99222.0</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H87" s="35">
         <v>11497.0</v>
       </c>
-      <c r="I87" s="36">
+      <c r="I87" s="35">
         <v>230559.0</v>
       </c>
-      <c r="J87" s="37">
+      <c r="J87" s="36">
         <v>8734.0</v>
       </c>
-      <c r="K87" s="38">
+      <c r="K87" s="37">
         <v>0.7365556890663109</v>
       </c>
-      <c r="L87" s="39">
+      <c r="L87" s="38">
         <v>0.2088000656564275</v>
       </c>
-      <c r="M87" s="39">
+      <c r="M87" s="38">
         <v>0.024193972655781448</v>
       </c>
-      <c r="N87" s="39">
+      <c r="N87" s="38">
         <v>0.4851820598020627</v>
       </c>
-      <c r="O87" s="40">
+      <c r="O87" s="39">
         <v>0.018379590952039244</v>
       </c>
-      <c r="P87" s="41">
+      <c r="P87" s="40">
         <v>0.28348170919854176</v>
       </c>
-      <c r="Q87" s="42">
+      <c r="Q87" s="41">
         <v>0.03284744523044924</v>
       </c>
-      <c r="R87" s="42">
+      <c r="R87" s="41">
         <v>0.6587174154029005</v>
       </c>
-      <c r="S87" s="43">
+      <c r="S87" s="42">
         <v>0.024953430168108522</v>
       </c>
-      <c r="T87" s="76">
+      <c r="T87" s="75">
         <v>0.5488354343034072</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B88" s="73">
+      <c r="B88" s="72">
         <v>2014.0</v>
       </c>
-      <c r="C88" s="74">
+      <c r="C88" s="73">
         <v>41944.0</v>
       </c>
-      <c r="D88" s="75" t="s">
+      <c r="D88" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E88" s="34">
+      <c r="E88" s="33">
         <v>399294.0</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="34">
         <v>204640.0</v>
       </c>
-      <c r="G88" s="36">
+      <c r="G88" s="35">
         <v>35888.0</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H88" s="35">
         <v>1970.0</v>
       </c>
-      <c r="I88" s="36">
+      <c r="I88" s="35">
         <v>144366.0</v>
       </c>
-      <c r="J88" s="37">
+      <c r="J88" s="36">
         <v>22416.0</v>
       </c>
-      <c r="K88" s="38">
+      <c r="K88" s="37">
         <v>0.5125045705670509</v>
       </c>
-      <c r="L88" s="39">
+      <c r="L88" s="38">
         <v>0.08987863579217319</v>
       </c>
-      <c r="M88" s="39">
+      <c r="M88" s="38">
         <v>0.004933707994610488</v>
       </c>
-      <c r="N88" s="39">
+      <c r="N88" s="38">
         <v>0.3615531412943846</v>
       </c>
-      <c r="O88" s="40">
+      <c r="O88" s="39">
         <v>0.05613908548588258</v>
       </c>
-      <c r="P88" s="41">
+      <c r="P88" s="40">
         <v>0.17537138389366694</v>
       </c>
-      <c r="Q88" s="42">
+      <c r="Q88" s="41">
         <v>0.00962666145426114</v>
       </c>
-      <c r="R88" s="42">
+      <c r="R88" s="41">
         <v>0.7054632525410477</v>
       </c>
-      <c r="S88" s="43">
+      <c r="S88" s="42">
         <v>0.10953870211102423</v>
       </c>
-      <c r="T88" s="76">
+      <c r="T88" s="75">
         <v>0.5458787091556454</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="55">
         <v>2014.0</v>
       </c>
-      <c r="C89" s="105">
+      <c r="C89" s="104">
         <v>41974.0</v>
       </c>
-      <c r="D89" s="106" t="s">
+      <c r="D89" s="105" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="45">
         <v>382885.0</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89" s="46">
         <v>266704.0</v>
       </c>
-      <c r="G89" s="48">
+      <c r="G89" s="47">
         <v>32013.0</v>
       </c>
-      <c r="H89" s="48">
+      <c r="H89" s="47">
         <v>3838.0</v>
       </c>
-      <c r="I89" s="48">
+      <c r="I89" s="47">
         <v>219179.0</v>
       </c>
-      <c r="J89" s="49">
+      <c r="J89" s="48">
         <v>11674.0</v>
       </c>
-      <c r="K89" s="50">
+      <c r="K89" s="49">
         <v>0.6965642425271296</v>
       </c>
-      <c r="L89" s="51">
+      <c r="L89" s="50">
         <v>0.08360996121550858</v>
       </c>
-      <c r="M89" s="51">
+      <c r="M89" s="50">
         <v>0.010023897514919623</v>
       </c>
-      <c r="N89" s="51">
+      <c r="N89" s="50">
         <v>0.5724408112096321</v>
       </c>
-      <c r="O89" s="52">
+      <c r="O89" s="51">
         <v>0.030489572587069226</v>
       </c>
-      <c r="P89" s="53">
+      <c r="P89" s="52">
         <v>0.12003194552762614</v>
       </c>
-      <c r="Q89" s="54">
+      <c r="Q89" s="53">
         <v>0.014390485332053513</v>
       </c>
-      <c r="R89" s="54">
+      <c r="R89" s="53">
         <v>0.8218061971324014</v>
       </c>
-      <c r="S89" s="55">
+      <c r="S89" s="54">
         <v>0.04377137200791889</v>
       </c>
-      <c r="T89" s="107">
+      <c r="T89" s="106">
         <v>0.5567867800645236</v>
       </c>
     </row>
@@ -10443,193 +10505,195 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>277</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
